--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Ref" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="3D" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
   <si>
     <t xml:space="preserve">mu</t>
   </si>
@@ -165,40 +166,82 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">S vs NS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Even vs. Ref</t>
   </si>
   <si>
-    <t xml:space="preserve">S vs NS</t>
+    <t xml:space="preserve">Nx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln(J)</t>
   </si>
   <si>
     <t xml:space="preserve">Even</t>
   </si>
   <si>
-    <t xml:space="preserve">NS</t>
-  </si>
-  <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
+    <t xml:space="preserve">(J-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Trials</t>
+  </si>
+  <si>
     <t xml:space="preserve">lnJ</t>
   </si>
   <si>
-    <t xml:space="preserve">(J-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ny</t>
-  </si>
-  <si>
     <t xml:space="preserve">Div Delta</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref</t>
+    <t xml:space="preserve">UMFPACK V5.7.6 (May 4, 2016): ERROR: out of memory</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr (hsize)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase field was set to a point </t>
   </si>
 </sst>
 </file>
@@ -494,7 +537,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,6 +600,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -659,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -942,7 +997,7 @@
       </c>
       <c r="P5" s="4" t="n">
         <f aca="false">ABS(L5-O5)/L5*100</f>
-        <v>3.23358839886344</v>
+        <v>3.23358839887194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,11 +1049,11 @@
       </c>
       <c r="O6" s="6" t="n">
         <f aca="false">-(M6-N6)/(4*H6)</f>
-        <v>0.979219088491745</v>
+        <v>0.979219088491751</v>
       </c>
       <c r="P6" s="6" t="n">
         <f aca="false">ABS(L6-O6)/L6*100</f>
-        <v>0.0393742005251649</v>
+        <v>0.039374200525732</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,11 +1161,11 @@
       </c>
       <c r="O8" s="6" t="n">
         <f aca="false">-(M8-N8)/(4*H8)</f>
-        <v>0.982853317023238</v>
+        <v>0.982853317023125</v>
       </c>
       <c r="P8" s="6" t="n">
         <f aca="false">ABS(L8-O8)/L8*100</f>
-        <v>0.410655716852907</v>
+        <v>0.410655716841281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1221,7 @@
       </c>
       <c r="P9" s="4" t="n">
         <f aca="false">ABS(L9-O9)/L9*100</f>
-        <v>7.14956615800409</v>
+        <v>7.14956615800664</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1277,7 @@
       </c>
       <c r="P11" s="4" t="n">
         <f aca="false">ABS(L11-O11)/L11*100</f>
-        <v>7.19928081712661</v>
+        <v>7.19928081713342</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>16</v>
@@ -1281,7 +1336,7 @@
       </c>
       <c r="P12" s="4" t="n">
         <f aca="false">ABS(L12-O12)/L12*100</f>
-        <v>8.96185041076907</v>
+        <v>8.96185041077002</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>16</v>
@@ -1396,7 +1451,7 @@
       </c>
       <c r="P15" s="6" t="n">
         <f aca="false">ABS(L15-O15)/L15*100</f>
-        <v>0.362676624333032</v>
+        <v>0.362676624318581</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="P16" s="6" t="n">
         <f aca="false">ABS(L16-O16)/L16*100</f>
-        <v>0.13325974773527</v>
+        <v>0.133259747731141</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,11 +1559,11 @@
       </c>
       <c r="O17" s="6" t="n">
         <f aca="false">-(M17-N17)/(4*H17)</f>
-        <v>0.0676166565752735</v>
+        <v>0.0676166565752753</v>
       </c>
       <c r="P17" s="4" t="n">
         <f aca="false">ABS(L17-O17)/L17*100</f>
-        <v>0.586761847514386</v>
+        <v>0.586761847516967</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1691,7 @@
       </c>
       <c r="P20" s="6" t="n">
         <f aca="false">ABS(L20-O20)/L20*100</f>
-        <v>0.362676624333032</v>
+        <v>0.362676624318581</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,11 +1799,11 @@
       </c>
       <c r="O22" s="6" t="n">
         <f aca="false">-(M22-N22)/(4*H22)</f>
-        <v>0.0676166565752735</v>
+        <v>0.0676166565752753</v>
       </c>
       <c r="P22" s="4" t="n">
         <f aca="false">ABS(L22-O22)/L22*100</f>
-        <v>0.586761847514386</v>
+        <v>0.586761847516967</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1981,7 @@
       </c>
       <c r="P26" s="6" t="n">
         <f aca="false">ABS(L26-O26)/L26*100</f>
-        <v>0.161391457568409</v>
+        <v>0.161391457574629</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2037,7 @@
       </c>
       <c r="P27" s="6" t="n">
         <f aca="false">ABS(L27-O27)/L27*100</f>
-        <v>0.436796358115996</v>
+        <v>0.436796358118069</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,11 +2089,11 @@
       </c>
       <c r="O28" s="8" t="n">
         <f aca="false">-(M28-N28)/(4*H28)</f>
-        <v>0.00078482340149066</v>
+        <v>0.000784823401490627</v>
       </c>
       <c r="P28" s="8" t="n">
         <f aca="false">ABS(L28-O28)/L28*100</f>
-        <v>0.0551743592392646</v>
+        <v>0.055174359235118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,11 +2145,11 @@
       </c>
       <c r="O29" s="6" t="n">
         <f aca="false">-(M29-N29)/(4*H29)</f>
-        <v>0.000778531581190525</v>
+        <v>0.000778531581190498</v>
       </c>
       <c r="P29" s="6" t="n">
         <f aca="false">ABS(L29-O29)/L29*100</f>
-        <v>0.746954088983927</v>
+        <v>0.746954088987383</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,11 +2201,11 @@
       </c>
       <c r="O30" s="6" t="n">
         <f aca="false">-(M30-N30)/(4*H30)</f>
-        <v>0.000814316690269068</v>
+        <v>0.000814316690269125</v>
       </c>
       <c r="P30" s="6" t="n">
         <f aca="false">ABS(L30-O30)/L30*100</f>
-        <v>3.81520004851672</v>
+        <v>3.81520004852398</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,11 +2257,11 @@
       </c>
       <c r="O31" s="6" t="n">
         <f aca="false">-(M31-N31)/(4*H31)</f>
-        <v>0.000815004147225191</v>
+        <v>0.000815004147225123</v>
       </c>
       <c r="P31" s="6" t="n">
         <f aca="false">ABS(L31-O31)/L31*100</f>
-        <v>3.90284221805289</v>
+        <v>3.90284221804425</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,11 +2313,11 @@
       </c>
       <c r="O32" s="6" t="n">
         <f aca="false">-(M32-N32)/(4*H32)</f>
-        <v>0.000740128307695278</v>
+        <v>0.000740128307695274</v>
       </c>
       <c r="P32" s="4" t="n">
         <f aca="false">ABS(L32-O32)/L32*100</f>
-        <v>5.64289146576747</v>
+        <v>5.642891465768</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,11 +2434,11 @@
       </c>
       <c r="O35" s="6" t="n">
         <f aca="false">-(M35-N35)/(4*H35)</f>
-        <v>0.000784061050575018</v>
+        <v>0.000784061050574996</v>
       </c>
       <c r="P35" s="6" t="n">
         <f aca="false">ABS(L35-O35)/L35*100</f>
-        <v>0.0420158540527643</v>
+        <v>0.0420158540555287</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,11 +2490,11 @@
       </c>
       <c r="O36" s="6" t="n">
         <f aca="false">-(M36-N36)/(4*H36)</f>
-        <v>0.000781108931105257</v>
+        <v>0.000781108931105013</v>
       </c>
       <c r="P36" s="6" t="n">
         <f aca="false">ABS(L36-O36)/L36*100</f>
-        <v>0.418374188571383</v>
+        <v>0.418374188602483</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,11 +2847,11 @@
       </c>
       <c r="K44" s="6" t="n">
         <f aca="false">ABS(G44-J44)/G44*100</f>
-        <v>9.52835529332831</v>
+        <v>9.5283552933284</v>
       </c>
       <c r="L44" s="6" t="n">
         <f aca="false">ABS(H44-J44)/H44*100</f>
-        <v>4.86901095594258</v>
+        <v>4.86901095594267</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>0.012</v>
@@ -2850,11 +2905,11 @@
       </c>
       <c r="K45" s="6" t="n">
         <f aca="false">ABS(G45-J45)/G45*100</f>
-        <v>11.6211803997127</v>
+        <v>11.6211803997126</v>
       </c>
       <c r="L45" s="6" t="n">
         <f aca="false">ABS(H45-J45)/H45*100</f>
-        <v>6.87280712746842</v>
+        <v>6.87280712746835</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>0.012</v>
@@ -3335,11 +3390,11 @@
       </c>
       <c r="U57" s="8" t="n">
         <f aca="false">-(S57-T57)/(4*M57)</f>
-        <v>0.979219088491745</v>
+        <v>0.979219088491751</v>
       </c>
       <c r="V57" s="8" t="n">
         <f aca="false">ABS(R57-U57)/R57*100</f>
-        <v>0.0393742005251649</v>
+        <v>0.039374200525732</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,10 +4044,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4078,6 +4133,46 @@
       </c>
       <c r="F4" s="0" t="n">
         <v>-0.02067</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>-0.3304</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-0.1505</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.3006</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-0.3006</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-0.1254</v>
       </c>
     </row>
   </sheetData>
@@ -4096,10 +4191,1729 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">B2*(1+(3/8)*M2/N2)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.509744057083463</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <f aca="false">ABS(G2-J2)/G2*100</f>
+        <v>9.4106153860191</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">ABS(H2-J2)/H2*100</f>
+        <v>4.75627971300103</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <f aca="false">5*M2</f>
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="n">
+        <f aca="false">M2</f>
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="n">
+        <f aca="false">6/S2</f>
+        <v>300</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <f aca="false">1/S2</f>
+        <v>50</v>
+      </c>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <f aca="false">B3*(1+(3/8)*M3/N3)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.510292607311617</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <f aca="false">ABS(G3-J3)/G3*100</f>
+        <v>9.5283552933284</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <f aca="false">ABS(H3-J3)/H3*100</f>
+        <v>4.86901095594267</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <f aca="false">5*M3</f>
+        <v>0.06</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="n">
+        <f aca="false">M3</f>
+        <v>0.012</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="n">
+        <f aca="false">6/S3</f>
+        <v>500</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <f aca="false">1/S3</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">B4*(1+(3/8)*M4/N4)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0.520043079482261</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <f aca="false">ABS(G4-J4)/G4*100</f>
+        <v>11.6211803997126</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">ABS(H4-J4)/H4*100</f>
+        <v>6.87280712746835</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <f aca="false">5*M4</f>
+        <v>0.06</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="n">
+        <f aca="false">M4</f>
+        <v>0.012</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="n">
+        <f aca="false">6/S4</f>
+        <v>500</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <f aca="false">1/S4</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">B5*(1+(3/8)*M5/N5)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.520236586887892</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <f aca="false">ABS(G5-J5)/G5*100</f>
+        <v>11.6627145069526</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <f aca="false">ABS(H5-J5)/H5*100</f>
+        <v>6.91257437071353</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <f aca="false">5*M5</f>
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="n">
+        <f aca="false">M5</f>
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="n">
+        <f aca="false">6/S5</f>
+        <v>600</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <f aca="false">1/S5</f>
+        <v>100</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <f aca="false">B6*(1+(3/8)*M6/N6)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.514070351758794</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <f aca="false">ABS(G6-J6)/G6*100</f>
+        <v>10.339204069284</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <f aca="false">ABS(H6-J6)/H6*100</f>
+        <v>5.64536616498027</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <f aca="false">5*M6</f>
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <f aca="false">M6</f>
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <f aca="false">6/S6</f>
+        <v>600</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <f aca="false">1/S6</f>
+        <v>100</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <f aca="false">B7*(1+(3/8)*M7/N7)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0.520236586887892</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <f aca="false">ABS(G7-J7)/G7*100</f>
+        <v>11.6627145069526</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <f aca="false">ABS(H7-J7)/H7*100</f>
+        <v>6.91257437071353</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <f aca="false">5*M7</f>
+        <v>0.03</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <f aca="false">M7</f>
+        <v>0.006</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="n">
+        <f aca="false">6/S7</f>
+        <v>1000</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <f aca="false">1/S7</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <f aca="false">B8*(1+(3/8)*M8/N8)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>0.520236586887892</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <f aca="false">ABS(G8-J8)/G8*100</f>
+        <v>11.6627145069526</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <f aca="false">ABS(H8-J8)/H8*100</f>
+        <v>6.91257437071353</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <f aca="false">5*M8</f>
+        <v>0.025</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <f aca="false">M8</f>
+        <v>0.005</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="n">
+        <f aca="false">6/S8</f>
+        <v>1200</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <f aca="false">1/S8</f>
+        <v>200</v>
+      </c>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <f aca="false">B9*(1+(3/8)*M9/N9)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.520987332893662</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <f aca="false">ABS(G9-J9)/G9*100</f>
+        <v>11.8238533791933</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <f aca="false">ABS(H9-J9)/H9*100</f>
+        <v>7.06685838340769</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <f aca="false">5*M9</f>
+        <v>0.025</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <f aca="false">M9</f>
+        <v>0.005</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <f aca="false">6/S9</f>
+        <v>1200</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <f aca="false">1/S9</f>
+        <v>200</v>
+      </c>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <f aca="false">B10*(1+(3/8)*M10/N10)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0.526942541986216</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <f aca="false">ABS(G10-J10)/G10*100</f>
+        <v>13.1020695398619</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f aca="false">ABS(H10-J10)/H10*100</f>
+        <v>8.29069913403544</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <f aca="false">5*M10</f>
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <f aca="false">M10</f>
+        <v>0.002</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <f aca="false">6/S10</f>
+        <v>3000</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <f aca="false">1/S10</f>
+        <v>500</v>
+      </c>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <f aca="false">B13*(1+(3/8)*M13/N13)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.521976892026995</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <f aca="false">ABS(G13-J13)/G13*100</f>
+        <v>12.0362507033688</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <f aca="false">ABS(H13-J13)/H13*100</f>
+        <v>7.270220309699</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <f aca="false">5*M13</f>
+        <v>0.025</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="S13" s="6" t="n">
+        <f aca="false">M13</f>
+        <v>0.005</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <f aca="false">6/S13</f>
+        <v>1200</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <f aca="false">1/S13</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <f aca="false">B14*(1+(3/8)*M14/N14)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>100001</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>0.523953</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <f aca="false">5*M14</f>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="S14" s="6" t="n">
+        <f aca="false">M14</f>
+        <v>0.002</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <f aca="false">6/S14</f>
+        <v>3000</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <f aca="false">1/S14</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">6/C18</f>
+        <v>1200</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">1/C18</f>
+        <v>200</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.060804</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <f aca="false">6/M18</f>
+        <v>6000</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="F19" s="0" t="e">
+        <f aca="false">6/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="0" t="e">
+        <f aca="false">1/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.059519</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <f aca="false">6/M19</f>
+        <v>3000</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="H20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.059459</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <f aca="false">6/M20</f>
+        <v>3000</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D21" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">6/C21</f>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">1/C21</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.073826</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <f aca="false">6/M21</f>
+        <v>3000</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="19"/>
+      <c r="H22" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.073826</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <f aca="false">6/M22</f>
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D23" s="19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">6/C23</f>
+        <v>1000</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">1/C23</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.073826</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">6/C24</f>
+        <v>1000</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">1/C24</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.073826</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">6/C26</f>
+        <v>750</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">1/C26</f>
+        <v>125</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.099497</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="H27" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0.115731</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="H28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0.115616</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0.11521</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">6/C31</f>
+        <v>600</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">1/C31</f>
+        <v>100</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0.129899</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="H32" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0.128278</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">6/C34</f>
+        <v>750</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">1/C34</f>
+        <v>125</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0.118121</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="19"/>
+      <c r="H35" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0.115886</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0.115731</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.066443</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="H39" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.066332</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="H40" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.06503</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D42" s="19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.066332</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="H43" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.064787</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="H44" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.06503</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:W12"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="K16:R16"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4109,967 +5923,97 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <f aca="false">B2*(1+(3/8)*M2/N2)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="H2" s="0" t="n">
+        <f aca="false">-D2</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">15*D2</f>
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">5*D2</f>
+        <v>0.05</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.509744057083463</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <f aca="false">ABS(G2-J2)/G2*100</f>
-        <v>9.4106153860191</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <f aca="false">ABS(H2-J2)/H2*100</f>
-        <v>4.75627971300103</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <f aca="false">5*M2</f>
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="M2" s="0" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <f aca="false">B3*(1+(3/8)*M3/N3)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0.510292607311617</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <f aca="false">ABS(G3-J3)/G3*100</f>
-        <v>9.52835529332831</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <f aca="false">ABS(H3-J3)/H3*100</f>
-        <v>4.86901095594258</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <f aca="false">5*M3</f>
-        <v>0.06</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <f aca="false">B4*(1+(3/8)*M4/N4)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0.520043079482261</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <f aca="false">ABS(G4-J4)/G4*100</f>
-        <v>11.6211803997127</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <f aca="false">ABS(H4-J4)/H4*100</f>
-        <v>6.87280712746842</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <f aca="false">5*M4</f>
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <f aca="false">B5*(1+(3/8)*M5/N5)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>100001</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0.520236586887892</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <f aca="false">ABS(G5-J5)/G5*100</f>
-        <v>11.6627145069526</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">ABS(H5-J5)/H5*100</f>
-        <v>6.91257437071353</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <f aca="false">5*M5</f>
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <f aca="false">B6*(1+(3/8)*M6/N6)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>100001</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="M6" s="12" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <f aca="false">5*M6</f>
-        <v>0.03</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <f aca="false">B7*(1+(3/8)*M7/N7)</f>
-        <v>1.075</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>100001</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0.4659</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="M7" s="12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <f aca="false">5*M7</f>
-        <v>0.025</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <f aca="false">6/M11</f>
-        <v>6000</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <f aca="false">1/M11</f>
-        <v>1000</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">6/C13</f>
-        <v>1200</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">1/C13</f>
-        <v>200</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.060804</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="F14" s="0" t="e">
-        <f aca="false">6/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="0" t="e">
-        <f aca="false">1/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0.059519</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="H15" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.059459</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D16" s="16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">6/C16</f>
-        <v>1000</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">1/C16</f>
-        <v>166.666666666667</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.073826</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="16"/>
-      <c r="H17" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.073826</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D18" s="16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">6/C18</f>
-        <v>1000</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">1/C18</f>
-        <v>166.666666666667</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0.073826</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">6/C19</f>
-        <v>1000</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">1/C19</f>
-        <v>166.666666666667</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>0.073826</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">6/C21</f>
-        <v>750</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">1/C21</f>
-        <v>125</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0.099497</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.115731</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>0.115616</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="H24" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0.11521</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">6/C26</f>
-        <v>600</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">1/C26</f>
-        <v>100</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>0.129899</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O26" s="12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P26" s="12" t="n">
-        <f aca="false">6/M26</f>
-        <v>600</v>
-      </c>
-      <c r="Q26" s="12" t="n">
-        <f aca="false">1/M26</f>
-        <v>100</v>
-      </c>
-      <c r="R26" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="S26" s="12" t="n">
-        <v>0.50315</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="H27" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>0.128278</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">6/C29</f>
-        <v>750</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">1/C29</f>
-        <v>125</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.118121</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="16"/>
-      <c r="H30" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0.115886</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>0.115731</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D33" s="16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E33" s="16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.066443</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="H34" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0.066332</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="H35" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.06503</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D37" s="16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.066332</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="H38" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.064787</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="H39" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.06503</v>
+      <c r="O2" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="K9:S9"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ref" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="3D" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Task2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Task3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Task4-3D" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="94">
   <si>
     <t xml:space="preserve">mu</t>
   </si>
@@ -181,6 +182,15 @@
     <t xml:space="preserve">Ny</t>
   </si>
   <si>
+    <t xml:space="preserve">Saved/Deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divergence Info</t>
+  </si>
+  <si>
     <t xml:space="preserve">NS</t>
   </si>
   <si>
@@ -190,6 +200,9 @@
     <t xml:space="preserve">Even</t>
   </si>
   <si>
+    <t xml:space="preserve">Alt</t>
+  </si>
+  <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
@@ -199,6 +212,12 @@
     <t xml:space="preserve">Ref</t>
   </si>
   <si>
+    <t xml:space="preserve">Saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 145: AM Iteration: 2681,  alpha_error:     0.28819523  *** Warning: PETSc SNES solver diverged in 1 iterations with divergence reason DIVERGED_FUNCTION_COUNT.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrete Trials</t>
   </si>
   <si>
@@ -208,12 +227,57 @@
     <t xml:space="preserve">Div Delta</t>
   </si>
   <si>
-    <t xml:space="preserve">UMFPACK V5.7.6 (May 4, 2016): ERROR: out of memory</t>
-  </si>
-  <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">x_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MidPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nx (inner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ny (Inner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propagated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted</t>
+  </si>
+  <si>
     <t xml:space="preserve">hr (hsize)</t>
   </si>
   <si>
@@ -223,7 +287,7 @@
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">T (Thickness is 2*T)</t>
   </si>
   <si>
     <t xml:space="preserve">H0</t>
@@ -235,13 +299,13 @@
     <t xml:space="preserve">W0</t>
   </si>
   <si>
+    <t xml:space="preserve">Ny (limit)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Load Steps</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase field was set to a point </t>
+    <t xml:space="preserve">Con/Div</t>
   </si>
 </sst>
 </file>
@@ -537,7 +601,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -612,6 +676,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -707,6 +775,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12699720" y="1042560"/>
+          <a:ext cx="2596680" cy="3480480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>707040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893880" y="191160"/>
+          <a:ext cx="1616760" cy="2916360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4191,10 +4343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -4212,14 +4364,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,13 +4447,21 @@
       <c r="W1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="X1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -4348,13 +4511,13 @@
         <v>0.1</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="n">
@@ -4371,13 +4534,16 @@
         <f aca="false">1/S2</f>
         <v>50</v>
       </c>
-      <c r="Y2" s="6"/>
+      <c r="Y2" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
@@ -4427,13 +4593,13 @@
         <v>0.06</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6" t="n">
@@ -4450,13 +4616,16 @@
         <f aca="false">1/S3</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Y3" s="6"/>
+      <c r="Y3" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -4506,13 +4675,13 @@
         <v>0.06</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="n">
@@ -4529,13 +4698,16 @@
         <f aca="false">1/S4</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Y4" s="6"/>
+      <c r="Y4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -4585,13 +4757,13 @@
         <v>0.05</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="n">
@@ -4608,13 +4780,16 @@
         <f aca="false">1/S5</f>
         <v>100</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -4664,13 +4839,13 @@
         <v>0.05</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R6" s="6" t="n">
         <v>200</v>
@@ -4692,6 +4867,9 @@
       <c r="W6" s="6" t="n">
         <f aca="false">1/S6</f>
         <v>100</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -4700,6 +4878,7 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
     </row>
     <row r="7" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -4749,13 +4928,13 @@
         <v>0.03</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R7" s="6" t="n">
         <v>150</v>
@@ -4774,14 +4953,20 @@
         <f aca="false">1/S7</f>
         <v>166.666666666667</v>
       </c>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="6"/>
+      <c r="X7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -4812,7 +4997,7 @@
       <c r="I8" s="6" t="n">
         <v>0.55</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="7" t="n">
         <v>0.520236586887892</v>
       </c>
       <c r="K8" s="6" t="n">
@@ -4831,13 +5016,13 @@
         <v>0.025</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>150</v>
@@ -4856,14 +5041,22 @@
         <f aca="false">1/S8</f>
         <v>200</v>
       </c>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="X8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -4913,13 +5106,13 @@
         <v>0.025</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>250</v>
@@ -4942,100 +5135,107 @@
         <f aca="false">1/S9</f>
         <v>200</v>
       </c>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="6"/>
+      <c r="X9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="n">
+      <c r="A10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="n">
         <f aca="false">B10*(1+(3/8)*M10/N10)</f>
         <v>1.075</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="13" t="n">
         <v>100001</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="12" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="12" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="12" t="n">
         <v>0.53</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="13" t="n">
         <v>0.526942541986216</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="12" t="n">
         <f aca="false">ABS(G10-J10)/G10*100</f>
         <v>13.1020695398619</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="12" t="n">
         <f aca="false">ABS(H10-J10)/H10*100</f>
         <v>8.29069913403544</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="12" t="n">
         <v>0.002</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="12" t="n">
         <f aca="false">5*M10</f>
         <v>0.01</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="6" t="n">
+      <c r="O10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="12" t="n">
         <f aca="false">M10</f>
         <v>0.002</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="T10" s="12" t="n">
         <v>0.22</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="12" t="n">
         <v>0.04</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="V10" s="12" t="n">
         <f aca="false">6/S10</f>
         <v>3000</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="W10" s="12" t="n">
         <f aca="false">1/S10</f>
         <v>500</v>
       </c>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="6"/>
+      <c r="X10" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -5062,17 +5262,19 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="0"/>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="0"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5097,13 +5299,15 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="0"/>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="0"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -5153,13 +5357,13 @@
         <v>0.025</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R13" s="4" t="n">
         <v>250</v>
@@ -5182,85 +5386,98 @@
         <f aca="false">1/S13</f>
         <v>200</v>
       </c>
+      <c r="X13" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="A14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="n">
         <f aca="false">B14*(1+(3/8)*M14/N14)</f>
         <v>1.075</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="13" t="n">
         <v>100001</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="12" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="12" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="12" t="n">
         <v>0.53</v>
       </c>
-      <c r="J14" s="12" t="n">
-        <v>0.523953</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="4" t="n">
+      <c r="J14" s="13" t="n">
+        <v>0.523953296167515</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <f aca="false">ABS(G14-J14)/G14*100</f>
+        <v>12.4604627962041</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <f aca="false">ABS(H14-J14)/H14*100</f>
+        <v>7.6763863887207</v>
+      </c>
+      <c r="M14" s="12" t="n">
         <v>0.002</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="12" t="n">
         <f aca="false">5*M14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="6" t="n">
+      <c r="O14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="12" t="n">
         <f aca="false">M14</f>
         <v>0.002</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="12" t="n">
         <v>0.16</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="12" t="n">
         <v>0.06</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="12" t="n">
         <f aca="false">6/S14</f>
         <v>3000</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="W14" s="12" t="n">
         <f aca="false">1/S14</f>
         <v>500</v>
       </c>
+      <c r="X14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -5271,16 +5488,14 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -5308,40 +5523,17 @@
         <v>43</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.005</v>
@@ -5349,7 +5541,7 @@
       <c r="D18" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E18" s="20" t="n">
         <v>0.1</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -5367,31 +5559,14 @@
         <v>0.060804</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <f aca="false">6/M18</f>
-        <v>6000</v>
-      </c>
-      <c r="Q18" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
@@ -5410,31 +5585,14 @@
         <v>0.059519</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <f aca="false">6/M19</f>
-        <v>3000</v>
-      </c>
-      <c r="Q19" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
@@ -5447,41 +5605,24 @@
         <v>0.059459</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <f aca="false">6/M20</f>
-        <v>3000</v>
-      </c>
-      <c r="Q20" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="n">
         <v>0.006</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="20" t="n">
         <v>0.05</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -5501,81 +5642,47 @@
       <c r="I21" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <f aca="false">6/M21</f>
-        <v>3000</v>
-      </c>
-      <c r="Q21" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="H22" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <f aca="false">6/M22</f>
-        <v>3000</v>
-      </c>
-      <c r="Q22" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="n">
         <v>0.006</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="20" t="n">
         <v>0.12</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -5602,7 +5709,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>0.006</v>
@@ -5610,7 +5717,7 @@
       <c r="D24" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="20" t="n">
         <v>0.18</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -5638,10 +5745,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.008</v>
@@ -5650,7 +5757,7 @@
         <v>0.008</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">6/C26</f>
@@ -5704,10 +5811,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.01</v>
@@ -5744,7 +5851,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E32" s="6"/>
       <c r="H32" s="0" t="n">
@@ -5756,7 +5863,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0.008</v>
@@ -5764,7 +5871,7 @@
       <c r="D34" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="E34" s="19" t="n">
+      <c r="E34" s="20" t="n">
         <v>0.18</v>
       </c>
       <c r="F34" s="0" t="n">
@@ -5785,7 +5892,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="H35" s="0" t="n">
         <v>300</v>
       </c>
@@ -5803,18 +5910,18 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="D38" s="19" t="n">
+      <c r="D38" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="E38" s="19" t="n">
+      <c r="E38" s="20" t="n">
         <v>0.08</v>
       </c>
       <c r="H38" s="0" t="n">
@@ -5847,15 +5954,15 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="D42" s="19" t="n">
+      <c r="D42" s="20" t="n">
         <v>0.01</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -5910,107 +6017,277 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2400</v>
+        <v>0.008</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">SQRT(H2^2-(C2/2)^2)</f>
+        <v>3.77491721763537</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">F2/2+I2</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">I2+F2/2</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">D2/A2</f>
+        <v>750</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">G2/A2</f>
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>4.37186</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">SQRT(H5^2-(C5/2)^2)</f>
+        <v>3.77491721763537</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">F5/2+I5</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">I5+F5/2</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">C5/A5</f>
         <v>1000</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="M5" s="0" t="n">
+        <f aca="false">G5/A5</f>
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2.71812</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <f aca="false">SQRT(H7^2-(C7/2)^2)</f>
+        <v>3.77491721763537</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <f aca="false">F7/2+I7</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="K7" s="12" t="n">
+        <f aca="false">I7+F7/2</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <f aca="false">C7/A7</f>
+        <v>4000</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <f aca="false">G7/A7</f>
+        <v>50</v>
+      </c>
+      <c r="N7" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">-D2</f>
-        <v>-0.01</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">15*D2</f>
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">5*D2</f>
-        <v>0.05</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">J2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>72</v>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6021,5 +6298,153 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <f aca="false">10*D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <f aca="false">-10*D2</f>
+        <v>-0.1</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <f aca="false">-H2*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <f aca="false">10*D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <f aca="false">5*D2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <f aca="false">K2</f>
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <f aca="false">G2/D2</f>
+        <v>300</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <f aca="false">J2/D2</f>
+        <v>10</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="113">
   <si>
     <t xml:space="preserve">mu</t>
   </si>
@@ -266,18 +266,51 @@
     <t xml:space="preserve">Loading</t>
   </si>
   <si>
+    <t xml:space="preserve">Even/Exp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Propagated</t>
   </si>
   <si>
     <t xml:space="preserve">C/D</t>
   </si>
   <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Deleted</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Starting of Time step 85: t = 2.575758 ------ Starting of Time step 85: t = 2.575758 --- AM Iteration: 1744,  alpha_error:     0.47661513     solver_alpha.solve(DamageProblem(), alpha.vector(), alpha_lb.vector(), alpha_ub.vector()) RuntimeError: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Starting of Time step 153: t = 2.570247 ---AM Iteration: 2500,  alpha_error:     0.37323315 Traceback (most recent call last):   File "2D-planestress-stabilized.py", line 430, in &lt;module&gt;     solver_alpha.solve(DamageProblem(), alpha.vector(), alpha_lb.vector(), alpha_ub.vector()) RuntimeError:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Starting of Time step 196: t = 2.569505 ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 92 AM Iteration: 2122,  alpha_error:     0.32328037 Traceback (most recent call last):    File "2D-planestress-stabilized.py", line 430, in &lt;module&gt;  RuntimeError:   solver_alpha.solve(DamageProblem(), alpha.vector(), alpha_lb.vector(), alpha_ub.vector()) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
     <t xml:space="preserve">hr (hsize)</t>
   </si>
   <si>
@@ -306,6 +339,30 @@
   </si>
   <si>
     <t xml:space="preserve">Con/Div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Starting of Time step 102: t = 3.428571 --- AM Iteration:  80,  alpha_error:     0.22715067  200 SNES Function norm 4.467690058813e-06   *** Warning: PETSc SNES solver diverged in 200 iterations with divergence      solver_u.solve()  File "3D-Taylor-Hood-Hybrid.py", line 419, in &lt;module&gt; Traceback (most recent call last): reason DIVERGED_MAX_IT. RuntimeError:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting of Time step 133: t = 3.420390 AM Iteration: 159,  alpha_error:     0.29323622 200 SNES Function norm 6.829629513345e-06    *** Warning: PETSc SNES solver diverged in 200 iterations with divergence reason DIVERGED_MAX_IT. Traceback (most recent call last):   File "3D-Taylor-Hood-Hybrid.py", line 426, in &lt;module&gt;     iteration = 1           # Initialization of iteration loop RuntimeError:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Starting of Time step 68: t = 3.434343 --- AM Iteration:  68,  alpha_error:     0.47892917  200 SNES Function norm 1.009597724139e-04   *** Warning: PETSc SNES solver diverged in 200 iterations with divergence reason DIVERGED_MAX_IT.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted </t>
   </si>
 </sst>
 </file>
@@ -316,11 +373,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -337,132 +395,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFFCD3C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDFCCE4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,13 +418,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFDFCCE4"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFCCE4"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFCD3C1"/>
       </patternFill>
     </fill>
     <fill>
@@ -497,11 +436,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD3C1"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -509,23 +448,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,64 +473,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,7 +491,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,113 +499,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -749,9 +593,9 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE5CA"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFADC5E7"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
@@ -779,16 +623,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>290160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>396360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -801,8 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12699720" y="1042560"/>
-          <a:ext cx="2596680" cy="3480480"/>
+          <a:off x="11397600" y="2066040"/>
+          <a:ext cx="2596320" cy="3480120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,16 +665,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>707040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>592200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -843,8 +687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9893880" y="191160"/>
-          <a:ext cx="1616760" cy="2916360"/>
+          <a:off x="10756800" y="2313720"/>
+          <a:ext cx="1616400" cy="2916000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,9 +823,9 @@
         <f aca="false">-(M2-N2)/(4*H2)</f>
         <v>0.972371180233134</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <f aca="false">ABS(L2-O2)/L2*100</f>
-        <v>0.660224556101683</v>
+      <c r="P2" s="0" t="e">
+        <f aca="false">ABS(l$sheet2.c71.5372-O2)/L2*100</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,57 +997,57 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="0" t="n">
         <f aca="false">D6/(2*H6)</f>
         <v>125</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="0" t="n">
         <f aca="false">1+G6/E6</f>
         <v>1.92</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="0" t="n">
         <f aca="false">2*SQRT(E6/PI())*(J6-1/J6)</f>
         <v>1.11637348132334</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="0" t="n">
         <f aca="false">A6*PI()*(K6^2)/4</f>
         <v>0.978833680555555</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="3" t="n">
         <v>2.43769710914742</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="3" t="n">
         <v>2.51603463622676</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="0" t="n">
         <f aca="false">-(M6-N6)/(4*H6)</f>
         <v>0.979219088491751</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="0" t="n">
         <f aca="false">ABS(L6-O6)/L6*100</f>
         <v>0.039374200525732</v>
       </c>
@@ -1264,58 +1108,58 @@
         <v>0.299804679000062</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="0" t="n">
         <f aca="false">D8/(2*H8)</f>
         <v>75</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="0" t="n">
         <f aca="false">1+G8/E8</f>
         <v>1.92</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="0" t="n">
         <f aca="false">2*SQRT(E8/PI())*(J8-1/J8)</f>
         <v>1.11637348132334</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="0" t="n">
         <f aca="false">A8*PI()*(K8^2)/4</f>
         <v>0.978833680555555</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="3" t="n">
         <v>1.4631990512321</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="3" t="n">
         <v>1.54182731659395</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="0" t="n">
         <f aca="false">-(M8-N8)/(4*H8)</f>
         <v>0.982853317023125</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">ABS(L8-O8)/L8*100</f>
         <v>0.410655716841281</v>
       </c>
@@ -1601,7 +1445,7 @@
         <f aca="false">-(M15-N15)/(4*H15)</f>
         <v>0.0669784229358747</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="0" t="n">
         <f aca="false">ABS(L15-O15)/L15*100</f>
         <v>0.362676624318581</v>
       </c>
@@ -1657,7 +1501,7 @@
         <f aca="false">-(M16-N16)/(4*H16)</f>
         <v>0.0673118023859748</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="0" t="n">
         <f aca="false">ABS(L16-O16)/L16*100</f>
         <v>0.133259747731141</v>
       </c>
@@ -1672,44 +1516,44 @@
       <c r="C17" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="0" t="n">
         <f aca="false">D17/(2*H17)</f>
         <v>150</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="0" t="n">
         <f aca="false">1+G17/E17</f>
         <v>1.2</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="0" t="n">
         <f aca="false">2*SQRT(E17/PI())*(J17-1/J17)</f>
         <v>0.292557672294384</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="0" t="n">
         <f aca="false">A17*PI()*(K17^2)/4</f>
         <v>0.0672222222222222</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.199570602855236</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="3" t="n">
         <v>0.204979935381258</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="0" t="n">
         <f aca="false">-(M17-N17)/(4*H17)</f>
         <v>0.0676166565752753</v>
       </c>
@@ -1728,67 +1572,56 @@
       <c r="C18" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="0" t="n">
         <f aca="false">D18/(2*H18)</f>
         <v>125</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="0" t="n">
         <f aca="false">1+G18/E18</f>
         <v>1.2</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="0" t="n">
         <f aca="false">2*SQRT(E18/PI())*(J18-1/J18)</f>
         <v>0.292557672294384</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="0" t="n">
         <f aca="false">A18*PI()*(K18^2)/4</f>
         <v>0.0672222222222222</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.165882198488591</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.171246978624393</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="0" t="n">
         <f aca="false">-(M18-N18)/(4*H18)</f>
         <v>0.0670597516975249</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="0" t="n">
         <f aca="false">ABS(L18-O18)/L18*100</f>
         <v>0.241691689632281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1841,7 +1674,7 @@
         <f aca="false">-(M20-N20)/(4*H20)</f>
         <v>0.0669784229358747</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="0" t="n">
         <f aca="false">ABS(L20-O20)/L20*100</f>
         <v>0.362676624318581</v>
       </c>
@@ -1912,44 +1745,44 @@
       <c r="C22" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="0" t="n">
         <f aca="false">D22/(2*H22)</f>
         <v>150</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="J22" s="0" t="n">
         <f aca="false">1+G22/E22</f>
         <v>1.2</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="0" t="n">
         <f aca="false">2*SQRT(E22/PI())*(J22-1/J22)</f>
         <v>0.292557672294384</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="0" t="n">
         <f aca="false">A22*PI()*(K22^2)/4</f>
         <v>0.0672222222222222</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.199570602855236</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="N22" s="3" t="n">
         <v>0.204979935381258</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="0" t="n">
         <f aca="false">-(M22-N22)/(4*H22)</f>
         <v>0.0676166565752753</v>
       </c>
@@ -1968,73 +1801,62 @@
       <c r="C23" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="0" t="n">
         <f aca="false">D23/(2*H23)</f>
         <v>125</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="0" t="n">
         <f aca="false">1+G23/E23</f>
         <v>1.2</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="0" t="n">
         <f aca="false">2*SQRT(E23/PI())*(J23-1/J23)</f>
         <v>0.292557672294384</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="0" t="n">
         <f aca="false">A23*PI()*(K23^2)/4</f>
         <v>0.0672222222222222</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.165882198488591</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.171246978624393</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="0" t="n">
         <f aca="false">-(M23-N23)/(4*H23)</f>
         <v>0.0670597516975249</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="0" t="n">
         <f aca="false">ABS(L23-O23)/L23*100</f>
         <v>0.241691689632281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -2131,7 +1953,7 @@
         <f aca="false">-(M26-N26)/(4*H26)</f>
         <v>0.000783124679539627</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="0" t="n">
         <f aca="false">ABS(L26-O26)/L26*100</f>
         <v>0.161391457574629</v>
       </c>
@@ -2187,63 +2009,63 @@
         <f aca="false">-(M27-N27)/(4*H27)</f>
         <v>0.000787816808649878</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="P27" s="0" t="n">
         <f aca="false">ABS(L27-O27)/L27*100</f>
         <v>0.436796358118069</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="n">
+      <c r="A28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="7" t="n">
         <v>100000</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="6" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="6" t="n">
         <f aca="false">D28/(2*H28)</f>
         <v>150</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="6" t="n">
         <f aca="false">1+G28/E28</f>
         <v>1.02</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="6" t="n">
         <f aca="false">2*SQRT(E28/PI())*(J28-1/J28)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="6" t="n">
         <f aca="false">A28*PI()*(K28^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="M28" s="7" t="n">
         <v>0.00228875949041917</v>
       </c>
-      <c r="N28" s="9" t="n">
+      <c r="N28" s="7" t="n">
         <v>0.00235154536253842</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="6" t="n">
         <f aca="false">-(M28-N28)/(4*H28)</f>
         <v>0.000784823401490627</v>
       </c>
-      <c r="P28" s="8" t="n">
+      <c r="P28" s="6" t="n">
         <f aca="false">ABS(L28-O28)/L28*100</f>
         <v>0.055174359235118</v>
       </c>
@@ -2258,48 +2080,48 @@
       <c r="C29" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="0" t="n">
         <f aca="false">D29/(2*H29)</f>
         <v>125</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="0" t="n">
         <f aca="false">1+G29/E29</f>
         <v>1.02</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="0" t="n">
         <f aca="false">2*SQRT(E29/PI())*(J29-1/J29)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="0" t="n">
         <f aca="false">A29*PI()*(K29^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M29" s="7" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.00189550605552553</v>
       </c>
-      <c r="N29" s="7" t="n">
+      <c r="N29" s="3" t="n">
         <v>0.00195778858202077</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="0" t="n">
         <f aca="false">-(M29-N29)/(4*H29)</f>
         <v>0.000778531581190498</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="0" t="n">
         <f aca="false">ABS(L29-O29)/L29*100</f>
         <v>0.746954088987383</v>
       </c>
@@ -2314,48 +2136,48 @@
       <c r="C30" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="0" t="n">
         <f aca="false">D30/(2*H30)</f>
         <v>100</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="0" t="n">
         <f aca="false">1+G30/E30</f>
         <v>1.02</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="0" t="n">
         <f aca="false">2*SQRT(E30/PI())*(J30-1/J30)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="0" t="n">
         <f aca="false">A30*PI()*(K30^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.00150014469545789</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="3" t="n">
         <v>0.00156529003067942</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="0" t="n">
         <f aca="false">-(M30-N30)/(4*H30)</f>
         <v>0.000814316690269125</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="0" t="n">
         <f aca="false">ABS(L30-O30)/L30*100</f>
         <v>3.81520004852398</v>
       </c>
@@ -2370,48 +2192,48 @@
       <c r="C31" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="0" t="n">
         <f aca="false">D31/(2*H31)</f>
         <v>75</v>
       </c>
-      <c r="J31" s="6" t="n">
+      <c r="J31" s="0" t="n">
         <f aca="false">1+G31/E31</f>
         <v>1.02</v>
       </c>
-      <c r="K31" s="6" t="n">
+      <c r="K31" s="0" t="n">
         <f aca="false">2*SQRT(E31/PI())*(J31-1/J31)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="0" t="n">
         <f aca="false">A31*PI()*(K31^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.00111579747422879</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="3" t="n">
         <v>0.0011809978060068</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="0" t="n">
         <f aca="false">-(M31-N31)/(4*H31)</f>
         <v>0.000815004147225123</v>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="P31" s="0" t="n">
         <f aca="false">ABS(L31-O31)/L31*100</f>
         <v>3.90284221804425</v>
       </c>
@@ -2426,44 +2248,44 @@
       <c r="C32" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="0" t="n">
         <f aca="false">D32/(2*H32)</f>
         <v>50</v>
       </c>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="0" t="n">
         <f aca="false">1+G32/E32</f>
         <v>1.02</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="0" t="n">
         <f aca="false">2*SQRT(E32/PI())*(J32-1/J32)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="0" t="n">
         <f aca="false">A32*PI()*(K32^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="M32" s="3" t="n">
         <v>0.000734095844110494</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="3" t="n">
         <v>0.000793306108726116</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="0" t="n">
         <f aca="false">-(M32-N32)/(4*H32)</f>
         <v>0.000740128307695274</v>
       </c>
@@ -2474,18 +2296,8 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -2547,48 +2359,48 @@
       <c r="C35" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H35" s="6" t="n">
+      <c r="H35" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="I35" s="6" t="n">
+      <c r="I35" s="0" t="n">
         <f aca="false">D35/(2*H35)</f>
         <v>500</v>
       </c>
-      <c r="J35" s="6" t="n">
+      <c r="J35" s="0" t="n">
         <f aca="false">1+G35/E35</f>
         <v>1.02</v>
       </c>
-      <c r="K35" s="6" t="n">
+      <c r="K35" s="0" t="n">
         <f aca="false">2*SQRT(E35/PI())*(J35-1/J35)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L35" s="6" t="n">
+      <c r="L35" s="0" t="n">
         <f aca="false">A35*PI()*(K35^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M35" s="7" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.00190663798787701</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="N35" s="3" t="n">
         <v>0.00192231920888851</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="0" t="n">
         <f aca="false">-(M35-N35)/(4*H35)</f>
         <v>0.000784061050574996</v>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="P35" s="0" t="n">
         <f aca="false">ABS(L35-O35)/L35*100</f>
         <v>0.0420158540555287</v>
       </c>
@@ -2603,48 +2415,48 @@
       <c r="C36" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="0" t="n">
         <v>0.4659</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="H36" s="6" t="n">
+      <c r="H36" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="I36" s="6" t="n">
+      <c r="I36" s="0" t="n">
         <f aca="false">D36/(2*H36)</f>
         <v>1250</v>
       </c>
-      <c r="J36" s="6" t="n">
+      <c r="J36" s="0" t="n">
         <f aca="false">1+G36/E36</f>
         <v>1.02</v>
       </c>
-      <c r="K36" s="6" t="n">
+      <c r="K36" s="0" t="n">
         <f aca="false">2*SQRT(E36/PI())*(J36-1/J36)</f>
         <v>0.0316024865259175</v>
       </c>
-      <c r="L36" s="6" t="n">
+      <c r="L36" s="0" t="n">
         <f aca="false">A36*PI()*(K36^2)/4</f>
         <v>0.000784390618992698</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.00190794103499958</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="3" t="n">
         <v>0.00191418990644842</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="0" t="n">
         <f aca="false">-(M36-N36)/(4*H36)</f>
         <v>0.000781108931105013</v>
       </c>
-      <c r="P36" s="6" t="n">
+      <c r="P36" s="0" t="n">
         <f aca="false">ABS(L36-O36)/L36*100</f>
         <v>0.418374188602483</v>
       </c>
@@ -2700,57 +2512,57 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9" t="n">
+      <c r="A39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="n">
         <v>100000</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="6" t="n">
         <v>0.4659</v>
       </c>
-      <c r="G39" s="8" t="n">
+      <c r="G39" s="6" t="n">
         <v>0.45</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I39" s="8" t="n">
+      <c r="I39" s="6" t="n">
         <f aca="false">D39/(2*H39)</f>
         <v>150</v>
       </c>
-      <c r="J39" s="8" t="n">
+      <c r="J39" s="6" t="n">
         <f aca="false">1+G39/E39</f>
         <v>1.9</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="6" t="n">
         <f aca="false">2*SQRT(E39/PI())*(J39-1/J39)</f>
         <v>1.09604142299762</v>
       </c>
-      <c r="L39" s="8" t="n">
+      <c r="L39" s="6" t="n">
         <f aca="false">A39*PI()*(K39^2)/4</f>
         <v>0.943504155124654</v>
       </c>
-      <c r="M39" s="10" t="n">
+      <c r="M39" s="8" t="n">
         <v>2.83736610489206</v>
       </c>
-      <c r="N39" s="10" t="n">
+      <c r="N39" s="8" t="n">
         <v>2.91447276871411</v>
       </c>
-      <c r="O39" s="8" t="n">
+      <c r="O39" s="6" t="n">
         <f aca="false">-(M39-N39)/(4*H39)</f>
         <v>0.963833297775629</v>
       </c>
-      <c r="P39" s="8" t="n">
+      <c r="P39" s="6" t="n">
         <f aca="false">ABS(L39-O39)/L39*100</f>
         <v>2.15464262033796</v>
       </c>
@@ -2889,376 +2701,333 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="n">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <f aca="false">B43*(1+(3/8)*M43/N43)</f>
         <v>1.075</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H43" s="6" t="n">
+      <c r="H43" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I43" s="6" t="n">
+      <c r="I43" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J43" s="7" t="n">
+      <c r="J43" s="3" t="n">
         <v>0.509744057083463</v>
       </c>
-      <c r="K43" s="6" t="n">
+      <c r="K43" s="0" t="n">
         <f aca="false">ABS(G43-J43)/G43*100</f>
         <v>9.4106153860191</v>
       </c>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="0" t="n">
         <f aca="false">ABS(H43-J43)/H43*100</f>
         <v>4.75627971300103</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="N43" s="6" t="n">
+      <c r="N43" s="0" t="n">
         <f aca="false">5*M43</f>
         <v>0.1</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="6" t="n">
+      <c r="S43" s="0" t="n">
         <f aca="false">1+I43/F43</f>
         <v>1.9</v>
       </c>
-      <c r="T43" s="6" t="n">
+      <c r="T43" s="0" t="n">
         <f aca="false">2*SQRT(F43/PI())*(S43-1/S43)</f>
         <v>1.09604142299762</v>
       </c>
-      <c r="U43" s="6" t="n">
+      <c r="U43" s="0" t="n">
         <f aca="false">A43*PI()*(T43^2)/4</f>
         <v>0.943504155124654</v>
       </c>
-      <c r="V43" s="11" t="n">
+      <c r="V43" s="5" t="n">
         <v>2.83736610489206</v>
       </c>
-      <c r="W43" s="11" t="n">
+      <c r="W43" s="5" t="n">
         <v>2.91447276871411</v>
       </c>
-      <c r="X43" s="6" t="n">
+      <c r="X43" s="0" t="n">
         <f aca="false">-(V43-W43)/(4*M43)</f>
         <v>0.963833297775629</v>
       </c>
-      <c r="Y43" s="6" t="n">
+      <c r="Y43" s="0" t="n">
         <f aca="false">ABS(U43-X43)/U43*100</f>
         <v>2.15464262033796</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="n">
+      <c r="A44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <f aca="false">B44*(1+(3/8)*M44/N44)</f>
         <v>1.075</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H44" s="6" t="n">
+      <c r="H44" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J44" s="7" t="n">
+      <c r="J44" s="3" t="n">
         <v>0.510292607311617</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="0" t="n">
         <f aca="false">ABS(G44-J44)/G44*100</f>
         <v>9.5283552933284</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="0" t="n">
         <f aca="false">ABS(H44-J44)/H44*100</f>
         <v>4.86901095594267</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="0" t="n">
         <f aca="false">5*M44</f>
         <v>0.06</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="n">
+      <c r="A45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <f aca="false">B45*(1+(3/8)*M45/N45)</f>
         <v>1.075</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G45" s="6" t="n">
+      <c r="G45" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H45" s="6" t="n">
+      <c r="H45" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I45" s="6" t="n">
+      <c r="I45" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J45" s="7" t="n">
+      <c r="J45" s="3" t="n">
         <v>0.520043079482261</v>
       </c>
-      <c r="K45" s="6" t="n">
+      <c r="K45" s="0" t="n">
         <f aca="false">ABS(G45-J45)/G45*100</f>
         <v>11.6211803997126</v>
       </c>
-      <c r="L45" s="6" t="n">
+      <c r="L45" s="0" t="n">
         <f aca="false">ABS(H45-J45)/H45*100</f>
         <v>6.87280712746835</v>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="N45" s="6" t="n">
+      <c r="N45" s="0" t="n">
         <f aca="false">5*M45</f>
         <v>0.06</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="O45" s="0" t="s">
         <v>30</v>
       </c>
       <c r="P45" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="n">
+      <c r="A46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <f aca="false">B46*(1+(3/8)*M46/N46)</f>
         <v>1.075</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="G46" s="6" t="n">
+      <c r="G46" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H46" s="6" t="n">
+      <c r="H46" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I46" s="6" t="n">
+      <c r="I46" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J46" s="7" t="n">
+      <c r="J46" s="3" t="n">
         <v>0.520236586887892</v>
       </c>
-      <c r="K46" s="6" t="n">
+      <c r="K46" s="0" t="n">
         <f aca="false">ABS(G46-J46)/G46*100</f>
         <v>11.6627145069526</v>
       </c>
-      <c r="L46" s="6" t="n">
+      <c r="L46" s="0" t="n">
         <f aca="false">ABS(H46-J46)/H46*100</f>
         <v>6.91257437071353</v>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="N46" s="6" t="n">
+      <c r="N46" s="0" t="n">
         <f aca="false">5*M46</f>
         <v>0.05</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" s="0" t="s">
         <v>32</v>
       </c>
       <c r="P46" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-    </row>
-    <row r="47" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12" t="e">
+    </row>
+    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="e">
         <f aca="false">B47*(1+(3/8)*M47/N47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="10" t="n">
         <v>100001</v>
       </c>
-      <c r="E47" s="12" t="n">
+      <c r="E47" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F47" s="12" t="n">
+      <c r="F47" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="9" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="9" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="M47" s="12" t="n">
+      <c r="J47" s="10"/>
+      <c r="M47" s="9" t="n">
         <v>0.006</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12" t="e">
+    <row r="48" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9" t="e">
         <f aca="false">B48*(1+(3/8)*M48/N48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="10" t="n">
         <v>100001</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F48" s="12" t="n">
+      <c r="F48" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="9" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="9" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="M48" s="12" t="n">
+      <c r="J48" s="10"/>
+      <c r="M48" s="9" t="n">
         <v>0.005</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="O48" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="P48" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6" t="s">
+      <c r="D50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="O50" s="0" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="0" t="n">
@@ -3270,29 +3039,13 @@
       <c r="R50" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7" t="s">
+      <c r="D51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6" t="s">
+      <c r="O51" s="0" t="s">
         <v>35</v>
       </c>
       <c r="P51" s="0" t="n">
@@ -3304,31 +3057,16 @@
       <c r="R51" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7" t="s">
+      <c r="D52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="n">
+      <c r="M52" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6" t="s">
+      <c r="O52" s="0" t="s">
         <v>35</v>
       </c>
       <c r="P52" s="0" t="n">
@@ -3341,50 +3079,43 @@
       <c r="R52" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6" t="e">
+      <c r="A53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="e">
         <f aca="false">B53*(1+(3/8)*M53/N53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G53" s="6" t="n">
+      <c r="G53" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H53" s="6" t="n">
+      <c r="H53" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I53" s="6" t="n">
+      <c r="I53" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="n">
+      <c r="M53" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6" t="s">
+      <c r="O53" s="0" t="s">
         <v>35</v>
       </c>
       <c r="P53" s="0" t="n">
@@ -3396,50 +3127,43 @@
       <c r="R53" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6" t="e">
+      <c r="A54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="e">
         <f aca="false">B54*(1+(3/8)*M54/N54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G54" s="6" t="n">
+      <c r="G54" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H54" s="6" t="n">
+      <c r="H54" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I54" s="6" t="n">
+      <c r="I54" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="n">
+      <c r="M54" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6" t="s">
+      <c r="O54" s="0" t="s">
         <v>35</v>
       </c>
       <c r="P54" s="0" t="n">
@@ -3451,13 +3175,9 @@
       <c r="R54" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="15"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="I55" s="2"/>
@@ -3465,7 +3185,7 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="15"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
@@ -3473,32 +3193,32 @@
       <c r="U56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="8" t="n">
+      <c r="A57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
         <f aca="false">B57*(1+(3/8)*M57/N57)</f>
         <v>1.075</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D57" s="7" t="n">
         <v>100000</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E57" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F57" s="8" t="n">
+      <c r="F57" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="G57" s="8" t="n">
+      <c r="G57" s="6" t="n">
         <v>0.4659</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I57" s="8" t="n">
+      <c r="I57" s="6" t="n">
         <v>0.46</v>
       </c>
       <c r="J57" s="3" t="n">
@@ -3512,64 +3232,64 @@
         <f aca="false">ABS(H57-J57)/H57*100</f>
         <v>6.85528320572872</v>
       </c>
-      <c r="M57" s="8" t="n">
+      <c r="M57" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="N57" s="0" t="n">
         <f aca="false">5*M57</f>
         <v>0.1</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P57" s="8" t="n">
+      <c r="P57" s="6" t="n">
         <f aca="false">1+I57/F57</f>
         <v>1.92</v>
       </c>
-      <c r="Q57" s="8" t="n">
+      <c r="Q57" s="6" t="n">
         <f aca="false">2*SQRT(F57/PI())*(P57-1/P57)</f>
         <v>1.11637348132334</v>
       </c>
-      <c r="R57" s="8" t="n">
+      <c r="R57" s="6" t="n">
         <f aca="false">A57*PI()*(Q57^2)/4</f>
         <v>0.978833680555555</v>
       </c>
-      <c r="S57" s="9" t="n">
+      <c r="S57" s="7" t="n">
         <v>2.43769710914742</v>
       </c>
-      <c r="T57" s="9" t="n">
+      <c r="T57" s="7" t="n">
         <v>2.51603463622676</v>
       </c>
-      <c r="U57" s="8" t="n">
+      <c r="U57" s="6" t="n">
         <f aca="false">-(S57-T57)/(4*M57)</f>
         <v>0.979219088491751</v>
       </c>
-      <c r="V57" s="8" t="n">
+      <c r="V57" s="6" t="n">
         <f aca="false">ABS(R57-U57)/R57*100</f>
         <v>0.039374200525732</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="8" t="n">
+      <c r="A58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C58" s="0" t="n">
         <f aca="false">B58*(1+(3/8)*M58/N58)</f>
         <v>1.075</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D58" s="7" t="n">
         <v>100000</v>
       </c>
-      <c r="E58" s="8" t="n">
+      <c r="E58" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="8" t="n">
+      <c r="F58" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="G58" s="8" t="n">
+      <c r="G58" s="6" t="n">
         <v>0.4659</v>
       </c>
       <c r="H58" s="0" t="n">
@@ -4196,10 +3916,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4325,6 +4045,66 @@
       </c>
       <c r="F6" s="0" t="n">
         <v>-0.1254</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.003344</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-1.537</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-0.0637</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.003861</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-1.201</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-0.08271</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.001431</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-2.824</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>-0.262</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4126,7 @@
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -4359,17 +4139,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.52"/>
@@ -4429,7 +4209,7 @@
       <c r="Q1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="0" t="s">
         <v>43</v>
       </c>
       <c r="S1" s="0" t="s">
@@ -4453,591 +4233,537 @@
       <c r="Y1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <f aca="false">B2*(1+(3/8)*M2/N2)</f>
         <v>1.075</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="3" t="n">
         <v>0.509744057083463</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="0" t="n">
         <f aca="false">ABS(G2-J2)/G2*100</f>
         <v>9.4106153860191</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="0" t="n">
         <f aca="false">ABS(H2-J2)/H2*100</f>
         <v>4.75627971300103</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="0" t="n">
         <f aca="false">5*M2</f>
         <v>0.1</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="0" t="n">
         <f aca="false">M2</f>
         <v>0.02</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="0" t="n">
         <f aca="false">6/S2</f>
         <v>300</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="0" t="n">
         <f aca="false">1/S2</f>
         <v>50</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="n">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">B3*(1+(3/8)*M3/N3)</f>
         <v>1.075</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="3" t="n">
         <v>0.510292607311617</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="0" t="n">
         <f aca="false">ABS(G3-J3)/G3*100</f>
         <v>9.5283552933284</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="0" t="n">
         <f aca="false">ABS(H3-J3)/H3*100</f>
         <v>4.86901095594267</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="0" t="n">
         <f aca="false">5*M3</f>
         <v>0.06</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="0" t="n">
         <f aca="false">M3</f>
         <v>0.012</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="n">
+      <c r="V3" s="0" t="n">
         <f aca="false">6/S3</f>
         <v>500</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="0" t="n">
         <f aca="false">1/S3</f>
         <v>83.3333333333333</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="n">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">B4*(1+(3/8)*M4/N4)</f>
         <v>1.075</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.520043079482261</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="0" t="n">
         <f aca="false">ABS(G4-J4)/G4*100</f>
         <v>11.6211803997126</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="0" t="n">
         <f aca="false">ABS(H4-J4)/H4*100</f>
         <v>6.87280712746835</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="0" t="n">
         <f aca="false">5*M4</f>
         <v>0.06</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="0" t="n">
         <f aca="false">M4</f>
         <v>0.012</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="n">
+      <c r="V4" s="0" t="n">
         <f aca="false">6/S4</f>
         <v>500</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="0" t="n">
         <f aca="false">1/S4</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="n">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">B5*(1+(3/8)*M5/N5)</f>
         <v>1.075</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="3" t="n">
         <v>0.520236586887892</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="0" t="n">
         <f aca="false">ABS(G5-J5)/G5*100</f>
         <v>11.6627145069526</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="0" t="n">
         <f aca="false">ABS(H5-J5)/H5*100</f>
         <v>6.91257437071353</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="0" t="n">
         <f aca="false">5*M5</f>
         <v>0.05</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="0" t="n">
         <f aca="false">M5</f>
         <v>0.01</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="0" t="n">
         <f aca="false">6/S5</f>
         <v>600</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="0" t="n">
         <f aca="false">1/S5</f>
         <v>100</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="n">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">B6*(1+(3/8)*M6/N6)</f>
         <v>1.075</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.514070351758794</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="0" t="n">
         <f aca="false">ABS(G6-J6)/G6*100</f>
         <v>10.339204069284</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="0" t="n">
         <f aca="false">ABS(H6-J6)/H6*100</f>
         <v>5.64536616498027</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="0" t="n">
         <f aca="false">5*M6</f>
         <v>0.05</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="0" t="n">
         <f aca="false">M6</f>
         <v>0.01</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="0" t="n">
         <f aca="false">6/S6</f>
         <v>600</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="0" t="n">
         <f aca="false">1/S6</f>
         <v>100</v>
       </c>
       <c r="X6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-    </row>
-    <row r="7" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="n">
+    </row>
+    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">B7*(1+(3/8)*M7/N7)</f>
         <v>1.075</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="3" t="n">
         <v>0.520236586887892</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="0" t="n">
         <f aca="false">ABS(G7-J7)/G7*100</f>
         <v>11.6627145069526</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="0" t="n">
         <f aca="false">ABS(H7-J7)/H7*100</f>
         <v>6.91257437071353</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="0" t="n">
         <f aca="false">5*M7</f>
         <v>0.03</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="0" t="n">
         <f aca="false">M7</f>
         <v>0.006</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6" t="n">
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="n">
         <f aca="false">6/S7</f>
         <v>1000</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="W7" s="0" t="n">
         <f aca="false">1/S7</f>
         <v>166.666666666667</v>
       </c>
       <c r="X7" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="n">
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">B8*(1+(3/8)*M8/N8)</f>
         <v>1.075</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="3" t="n">
         <v>0.520236586887892</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="0" t="n">
         <f aca="false">ABS(G8-J8)/G8*100</f>
         <v>11.6627145069526</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="0" t="n">
         <f aca="false">ABS(H8-J8)/H8*100</f>
         <v>6.91257437071353</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="0" t="n">
         <f aca="false">5*M8</f>
         <v>0.025</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="0" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="12" t="s">
         <v>57</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="0" t="n">
         <f aca="false">M8</f>
         <v>0.005</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="n">
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0" t="n">
         <f aca="false">6/S8</f>
         <v>1200</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="0" t="n">
         <f aca="false">1/S8</f>
         <v>200</v>
       </c>
@@ -5050,88 +4776,88 @@
       <c r="Z8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="n">
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">B9*(1+(3/8)*M9/N9)</f>
         <v>1.075</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="3" t="n">
         <v>0.520987332893662</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="0" t="n">
         <f aca="false">ABS(G9-J9)/G9*100</f>
         <v>11.8238533791933</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="0" t="n">
         <f aca="false">ABS(H9-J9)/H9*100</f>
         <v>7.06685838340769</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="0" t="n">
         <f aca="false">5*M9</f>
         <v>0.025</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="0" t="s">
         <v>59</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="12" t="s">
         <v>61</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="0" t="n">
         <f aca="false">M9</f>
         <v>0.005</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="V9" s="0" t="n">
         <f aca="false">6/S9</f>
         <v>1200</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="0" t="n">
         <f aca="false">1/S9</f>
         <v>200</v>
       </c>
@@ -5139,250 +4865,250 @@
         <v>62</v>
       </c>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="n">
+    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <f aca="false">B10*(1+(3/8)*M10/N10)</f>
         <v>1.075</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="10" t="n">
         <v>100001</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="9" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="9" t="n">
         <v>0.53</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="10" t="n">
         <v>0.526942541986216</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="9" t="n">
         <f aca="false">ABS(G10-J10)/G10*100</f>
         <v>13.1020695398619</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="9" t="n">
         <f aca="false">ABS(H10-J10)/H10*100</f>
         <v>8.29069913403544</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="9" t="n">
         <v>0.002</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="9" t="n">
         <f aca="false">5*M10</f>
         <v>0.01</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="9" t="n">
         <f aca="false">M10</f>
         <v>0.002</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="9" t="n">
         <v>0.22</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="9" t="n">
         <f aca="false">6/S10</f>
         <v>3000</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="9" t="n">
         <f aca="false">1/S10</f>
         <v>500</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0"/>
       <c r="Y11" s="0"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
       <c r="X12" s="0"/>
       <c r="Y12" s="0"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">B13*(1+(3/8)*M13/N13)</f>
         <v>1.075</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>100001</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="0" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="0" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="3" t="n">
         <v>0.521976892026995</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="0" t="n">
         <f aca="false">ABS(G13-J13)/G13*100</f>
         <v>12.0362507033688</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="0" t="n">
         <f aca="false">ABS(H13-J13)/H13*100</f>
         <v>7.270220309699</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="0" t="n">
         <f aca="false">5*M13</f>
         <v>0.025</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="0" t="s">
         <v>59</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="12" t="s">
         <v>61</v>
       </c>
       <c r="R13" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="S13" s="0" t="n">
         <f aca="false">M13</f>
         <v>0.005</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" s="0" t="n">
         <f aca="false">6/S13</f>
         <v>1200</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="W13" s="0" t="n">
         <f aca="false">1/S13</f>
         <v>200</v>
       </c>
@@ -5391,111 +5117,111 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="n">
+      <c r="A14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <f aca="false">B14*(1+(3/8)*M14/N14)</f>
         <v>1.075</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="10" t="n">
         <v>100001</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="9" t="n">
         <v>0.4659</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="9" t="n">
         <v>0.4866</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="9" t="n">
         <v>0.53</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="10" t="n">
         <v>0.523953296167515</v>
       </c>
-      <c r="K14" s="12" t="n">
+      <c r="K14" s="9" t="n">
         <f aca="false">ABS(G14-J14)/G14*100</f>
         <v>12.4604627962041</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="9" t="n">
         <f aca="false">ABS(H14-J14)/H14*100</f>
         <v>7.6763863887207</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="9" t="n">
         <v>0.002</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="9" t="n">
         <f aca="false">5*M14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="9" t="n">
         <f aca="false">M14</f>
         <v>0.002</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="9" t="n">
         <v>0.16</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="9" t="n">
         <v>0.06</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="9" t="n">
         <f aca="false">6/S14</f>
         <v>3000</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="9" t="n">
         <f aca="false">1/S14</f>
         <v>500</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="X14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="7"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -5519,17 +5245,16 @@
       <c r="G17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="0" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="Q17" s="6"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -5541,7 +5266,7 @@
       <c r="D18" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="16" t="n">
         <v>0.1</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -5558,18 +5283,9 @@
       <c r="I18" s="0" t="n">
         <v>0.060804</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
       <c r="F19" s="0" t="e">
         <f aca="false">6/C19</f>
         <v>#DIV/0!</v>
@@ -5584,45 +5300,25 @@
       <c r="I19" s="0" t="n">
         <v>0.059519</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
       <c r="H20" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0.059459</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="16" t="n">
         <v>0.05</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -5642,47 +5338,27 @@
       <c r="I21" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="16"/>
       <c r="H22" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="E23" s="20" t="n">
+      <c r="E23" s="16" t="n">
         <v>0.12</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -5699,25 +5375,18 @@
       <c r="I23" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="16" t="n">
         <v>0.18</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -5731,20 +5400,12 @@
       <c r="H24" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="0" t="n">
         <v>0.073826</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -5756,7 +5417,7 @@
       <c r="D26" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="0" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -5775,42 +5436,31 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="E27" s="6"/>
       <c r="H27" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.115731</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="E28" s="6"/>
       <c r="H28" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.115616</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="E29" s="6"/>
       <c r="H29" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.11521</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -5822,7 +5472,7 @@
       <c r="D31" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -5836,42 +5486,33 @@
       <c r="H31" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.129899</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="7"/>
+      <c r="T31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="6"/>
       <c r="H32" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.128278</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0.008</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E34" s="20" t="n">
+      <c r="E34" s="16" t="n">
         <v>0.18</v>
       </c>
       <c r="F34" s="0" t="n">
@@ -5885,18 +5526,16 @@
       <c r="H34" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="0" t="n">
         <v>0.118121</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="16"/>
       <c r="H35" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I35" s="6" t="n">
+      <c r="I35" s="0" t="n">
         <v>0.115886</v>
       </c>
     </row>
@@ -5904,12 +5543,12 @@
       <c r="H36" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="I36" s="6" t="n">
+      <c r="I36" s="0" t="n">
         <v>0.115731</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -5918,10 +5557,10 @@
       <c r="C38" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E38" s="16" t="n">
         <v>0.08</v>
       </c>
       <c r="H38" s="0" t="n">
@@ -5932,9 +5571,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
       <c r="H39" s="0" t="n">
         <v>400</v>
       </c>
@@ -5943,8 +5579,6 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
       <c r="H40" s="0" t="n">
         <v>500</v>
       </c>
@@ -5953,7 +5587,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -5962,7 +5596,7 @@
       <c r="C42" s="0" t="n">
         <v>0.005</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="16" t="n">
         <v>0.01</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -5976,9 +5610,6 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
       <c r="H43" s="0" t="n">
         <v>400</v>
       </c>
@@ -5987,8 +5618,6 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
       <c r="H44" s="0" t="n">
         <v>500</v>
       </c>
@@ -6017,21 +5646,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,11 +5723,28 @@
         <v>80</v>
       </c>
       <c r="P1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="S1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -6135,13 +5794,16 @@
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="O2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6149,31 +5811,37 @@
       <c r="N3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="O3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>83</v>
+      <c r="S3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>4.37186</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="Q4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>83</v>
+      <c r="S4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,73 +5892,223 @@
       <c r="N5" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>2.71812</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="S5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">SQRT(H7^2-(C7/2)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">F7/2+I7</f>
+        <v>7.75</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">I7+F7/2</f>
+        <v>7.75</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">C7/A7</f>
+        <v>2000</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">G7/A7</f>
+        <v>75</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2.575758</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>2.570247</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9" t="n">
+        <v>2.569505</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>0.002</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B10" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D10" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F10" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G10" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H10" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="I7" s="12" t="n">
-        <f aca="false">SQRT(H7^2-(C7/2)^2)</f>
+      <c r="I10" s="0" t="n">
+        <f aca="false">SQRT(H10^2-(C10/2)^2)</f>
         <v>3.77491721763537</v>
       </c>
-      <c r="J7" s="12" t="n">
-        <f aca="false">F7/2+I7</f>
+      <c r="J10" s="0" t="n">
+        <f aca="false">F10/2+I10</f>
         <v>8.52491721763538</v>
       </c>
-      <c r="K7" s="12" t="n">
-        <f aca="false">I7+F7/2</f>
+      <c r="K10" s="0" t="n">
+        <f aca="false">I10+F10/2</f>
         <v>8.52491721763538</v>
       </c>
-      <c r="L7" s="12" t="n">
-        <f aca="false">C7/A7</f>
+      <c r="L10" s="0" t="n">
+        <f aca="false">C10/A10</f>
         <v>4000</v>
       </c>
-      <c r="M7" s="12" t="n">
-        <f aca="false">G7/A7</f>
+      <c r="M10" s="0" t="n">
+        <f aca="false">G10/A10</f>
         <v>50</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="n">
+      <c r="O10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>2.787879</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="S10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="U7:Z7"/>
+    <mergeCell ref="U10:Z10"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6307,10 +6125,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W17" activeCellId="0" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6321,12 +6139,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,104 +6163,464 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="n">
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="0" t="n">
         <f aca="false">10*D2</f>
         <v>0.1</v>
       </c>
-      <c r="F2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="n">
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="n">
+      <c r="H2" s="0" t="n">
         <f aca="false">-10*D2</f>
         <v>-0.1</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="0" t="n">
         <f aca="false">-H2*2</f>
         <v>0.2</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="0" t="n">
         <f aca="false">10*D2</f>
         <v>0.1</v>
       </c>
-      <c r="K2" s="12" t="n">
+      <c r="K2" s="0" t="n">
         <f aca="false">5*D2</f>
         <v>0.05</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="0" t="n">
         <f aca="false">K2</f>
         <v>0.05</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="0" t="n">
         <f aca="false">G2/D2</f>
         <v>300</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="0" t="n">
         <f aca="false">J2/D2</f>
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P2" s="12" t="n">
-        <v>30</v>
+      <c r="Q2" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">10*D4</f>
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">-5*D4</f>
+        <v>-0.05</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">-H4*2</f>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">10*D4</f>
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">5*D4</f>
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">K4</f>
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">G4/D4</f>
+        <v>300</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">J4/D4</f>
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>3.428571</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3.434343</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">10*D9</f>
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">-2*D9</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">-H9*2/4</f>
+        <v>0.005</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">4*D9</f>
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">2*D9</f>
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">K9</f>
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">G9/D9</f>
+        <v>150</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">J9/D9</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.03507</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.040201</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.020101</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">8*D14</f>
+        <v>0.048</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">-2*D14</f>
+        <v>-0.012</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">-H14*2</f>
+        <v>0.024</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">4*D14</f>
+        <v>0.024</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">2*D14</f>
+        <v>0.012</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">K14</f>
+        <v>0.012</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">G14/D14</f>
+        <v>125</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <f aca="false">J14/D14</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>0.994975</v>
+      </c>
+      <c r="Q14" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U5:Z5"/>
+    <mergeCell ref="U7:Z7"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="118">
   <si>
     <t xml:space="preserve">mu</t>
   </si>
@@ -287,6 +287,9 @@
     <t xml:space="preserve">Deleted</t>
   </si>
   <si>
+    <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Did not reach</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">--- Starting of Time step 85: t = 2.575758 ------ Starting of Time step 85: t = 2.575758 --- AM Iteration: 1744,  alpha_error:     0.47661513     solver_alpha.solve(DamageProblem(), alpha.vector(), alpha_lb.vector(), alpha_ub.vector()) RuntimeError: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp</t>
   </si>
   <si>
     <t xml:space="preserve">--- Starting of Time step 153: t = 2.570247 ---AM Iteration: 2500,  alpha_error:     0.37323315 Traceback (most recent call last):   File "2D-planestress-stabilized.py", line 430, in &lt;module&gt;     solver_alpha.solve(DamageProblem(), alpha.vector(), alpha_lb.vector(), alpha_ub.vector()) RuntimeError:  </t>
@@ -494,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,6 +569,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -662,13 +666,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>228960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>466560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>306720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5767,10 +5771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6145,16 +6149,19 @@
         <v>2</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>67</v>
       </c>
       <c r="R7" s="12" t="n">
         <v>200</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>86</v>
@@ -6167,213 +6174,259 @@
       <c r="N8" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="R8" s="0" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="S8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="N9" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2.669708</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="N10" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="Q10" s="0" t="n">
+        <v>2.66388</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B11" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">SQRT(H9^2-(C9/2)^2)</f>
+      <c r="I11" s="0" t="n">
+        <f aca="false">SQRT(H11^2-(C11/2)^2)</f>
         <v>3</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">F9/2+I9</f>
+      <c r="J11" s="0" t="n">
+        <f aca="false">F11/2+I11</f>
         <v>7.75</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">I9+F9/2</f>
+      <c r="K11" s="0" t="n">
+        <f aca="false">I11+F11/2</f>
         <v>7.75</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">C9/A9</f>
+      <c r="L11" s="0" t="n">
+        <f aca="false">C11/A11</f>
         <v>2000</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">G9/A9</f>
+      <c r="M11" s="0" t="n">
+        <f aca="false">G11/A11</f>
         <v>75</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>2.575758</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="0" t="s">
+      <c r="S11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="U11" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="0" t="n">
-        <v>2.570247</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N11" s="12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12" t="n">
-        <v>2.569505</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">SQRT(H12^2-(C12/2)^2)</f>
-        <v>3.77491721763537</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">F12/2+I12</f>
-        <v>8.52491721763538</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">I12+F12/2</f>
-        <v>8.52491721763538</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <f aca="false">C12/A12</f>
-        <v>4000</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">G12/A12</f>
-        <v>50</v>
-      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="O12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>2.570247</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="n">
+        <v>2.569505</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>200</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">SQRT(H14^2-(C14/2)^2)</f>
+        <v>3.77491721763537</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">F14/2+I14</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">I14+F14/2</f>
+        <v>8.52491721763538</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">C14/A14</f>
+        <v>4000</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">G14/A14</f>
+        <v>50</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>2.787879</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="0" t="s">
+      <c r="S14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U14" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="s">
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0" t="s">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="U9:Z9"/>
-    <mergeCell ref="U12:Z12"/>
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U14:Z14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6626,14 +6679,14 @@
       <c r="S5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O6" s="0" t="n">
@@ -6668,14 +6721,14 @@
       <c r="R7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -6886,27 +6939,27 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -6959,7 +7012,7 @@
       <c r="O16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="P16" s="21" t="n">
+      <c r="P16" s="22" t="n">
         <v>0.422111</v>
       </c>
       <c r="Q16" s="12" t="n">
@@ -6979,7 +7032,7 @@
       <c r="O17" s="12" t="n">
         <v>3.5</v>
       </c>
-      <c r="P17" s="21" t="n">
+      <c r="P17" s="22" t="n">
         <v>0.397993</v>
       </c>
       <c r="Q17" s="12" t="n">
@@ -7049,8 +7102,8 @@
       <c r="O18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9" t="n">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19" t="n">
         <v>300</v>
       </c>
       <c r="R18" s="0" t="s">
@@ -7058,9 +7111,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9" t="n">
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19" t="n">
         <v>600</v>
       </c>
     </row>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845774C2-BA47-B646-B900-EAF23578174E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A4619-BD88-E343-A8A2-A9614AD8B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="920" windowWidth="22520" windowHeight="13340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="22520" windowHeight="14920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
   <si>
     <t>Delta</t>
   </si>
@@ -401,6 +401,36 @@
   </si>
   <si>
     <t xml:space="preserve">Div </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta </t>
+  </si>
+  <si>
+    <t>Cur Step</t>
+  </si>
+  <si>
+    <t>Cur Disp</t>
+  </si>
+  <si>
+    <t>length_f</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete </t>
+  </si>
+  <si>
+    <t>Phase-Field</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>% Error</t>
   </si>
 </sst>
 </file>
@@ -478,15 +508,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -505,6 +526,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,13 +625,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>67040</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>881780</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
@@ -643,13 +673,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>115600</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>72020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>105880</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>107520</xdr:rowOff>
     </xdr:to>
@@ -1075,22 +1105,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>0.53</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>250</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>0.33040000000000003</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1.89E-3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>-0.33040000000000003</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>-0.15049999999999999</v>
       </c>
     </row>
@@ -1098,19 +1128,19 @@
       <c r="A6">
         <v>0.53</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>300</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.30059999999999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1.89E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>-0.30059999999999998</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>-0.12540000000000001</v>
       </c>
     </row>
@@ -1209,16 +1239,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
@@ -1233,13 +1263,13 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
@@ -1257,13 +1287,13 @@
       <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -1289,7 +1319,7 @@
         <f t="shared" ref="G2:G9" si="1">F2*(1+3/8*C2/D2)</f>
         <v>1.075</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
         <v>100000</v>
       </c>
       <c r="I2">
@@ -1313,17 +1343,17 @@
         <f t="shared" ref="N2:N9" si="4">B2*E2*(M2-1/M2)^2</f>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="5">
         <v>5.8624315607501796</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="5">
         <v>5.9402212551688303</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q9" si="5">-(O2-P2)/(4*C2)</f>
         <v>0.97237118023313363</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="2">
         <f t="shared" ref="R2:R9" si="6">ABS(N2-Q2)/N2*100</f>
         <v>0.66022455610167186</v>
       </c>
@@ -1352,7 +1382,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>100000</v>
       </c>
       <c r="I3">
@@ -1376,17 +1406,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="5">
         <v>4.88776993694953</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <v>4.9634767245264699</v>
       </c>
       <c r="Q3">
         <f t="shared" si="5"/>
         <v>0.94633484471174922</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="2">
         <f t="shared" si="6"/>
         <v>3.3201591332003058</v>
       </c>
@@ -1415,7 +1445,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>100000</v>
       </c>
       <c r="I4">
@@ -1439,17 +1469,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="5">
         <v>3.9059454145553598</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <v>3.9836405223276699</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
         <v>0.97118884715387543</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="2">
         <f t="shared" si="6"/>
         <v>0.78101454348616151</v>
       </c>
@@ -1478,7 +1508,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>100000</v>
       </c>
       <c r="I5">
@@ -1502,17 +1532,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>2.92391448189001</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>3.0047532925215501</v>
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
         <v>1.010485132894251</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="2">
         <f t="shared" si="6"/>
         <v>3.2335883988719569</v>
       </c>
@@ -1541,7 +1571,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>100000</v>
       </c>
       <c r="I6">
@@ -1565,17 +1595,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="5">
         <v>2.43769710914742</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <v>2.51603463622676</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
         <v>0.97921908849175066</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="2">
         <f t="shared" si="6"/>
         <v>3.9374200525743384E-2</v>
       </c>
@@ -1604,7 +1634,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>100000</v>
       </c>
       <c r="I7">
@@ -1628,17 +1658,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="5">
         <v>1.9473614339844101</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <v>2.0254333612949398</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
         <v>0.97589909138162123</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="2">
         <f t="shared" si="6"/>
         <v>0.29980467900005087</v>
       </c>
@@ -1667,7 +1697,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>100000</v>
       </c>
       <c r="I8">
@@ -1691,17 +1721,17 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="5">
         <v>1.4631990512321</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="5">
         <v>1.54182731659395</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
         <v>0.98285331702312462</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="2">
         <f t="shared" si="6"/>
         <v>0.41065571684129237</v>
       </c>
@@ -1730,7 +1760,7 @@
         <f t="shared" si="1"/>
         <v>1.075</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>100000</v>
       </c>
       <c r="I9">
@@ -1754,32 +1784,32 @@
         <f t="shared" si="4"/>
         <v>0.9788336805555552</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="5">
         <v>0.98534888484989902</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="5">
         <v>1.0580569903688899</v>
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
         <v>0.90885131898738591</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="2">
         <f t="shared" si="6"/>
         <v>7.1495661580064862</v>
       </c>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1794,13 +1824,13 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
@@ -1818,14 +1848,14 @@
       <c r="P11" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -1851,7 +1881,7 @@
         <f t="shared" ref="G12:G19" si="8">F12*(1+3/8*C12/D12)</f>
         <v>1.075</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>100000</v>
       </c>
       <c r="I12">
@@ -1875,11 +1905,11 @@
         <f t="shared" ref="N12:N19" si="11">B12*E12*(M12-1/M12)^2</f>
         <v>1.0146515251355086</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -1905,7 +1935,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>100000</v>
       </c>
       <c r="I13">
@@ -1929,24 +1959,24 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="5">
         <v>5.0395538010583403</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="7">
         <v>5.1146389038175002</v>
       </c>
       <c r="Q13">
         <f>-(O13-P13)/(4*C13)</f>
         <v>0.93856378448949895</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="2">
         <f>ABS(N13-Q13)/N13*100</f>
         <v>7.4989036887169709</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1970,7 +2000,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="5">
         <v>100000</v>
       </c>
       <c r="I14">
@@ -1994,12 +2024,12 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="S14" s="11"/>
+      <c r="S14" s="8"/>
       <c r="V14"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2023,7 +2053,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>100000</v>
       </c>
       <c r="I15">
@@ -2047,17 +2077,17 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <v>3.0033641801503301</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="7">
         <v>3.0911002112499801</v>
       </c>
       <c r="Q15">
         <f>-(O15-P15)/(4*C15)</f>
         <v>1.096700388745625</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="2">
         <f>ABS(N15-Q15)/N15*100</f>
         <v>8.0864081487640451</v>
       </c>
@@ -2065,7 +2095,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2089,7 +2119,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <v>100000</v>
       </c>
       <c r="I16">
@@ -2113,13 +2143,13 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="V16"/>
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2143,7 +2173,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <v>100000</v>
       </c>
       <c r="I17">
@@ -2167,17 +2197,17 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="7">
         <v>1.98858865360632</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="7">
         <v>2.0685887136587202</v>
       </c>
       <c r="Q17">
         <f>-(O17-P17)/(4*C17)</f>
         <v>1.0000007506550028</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="2">
         <f>ABS(N17-Q17)/N17*100</f>
         <v>1.4439217916268485</v>
       </c>
@@ -2185,7 +2215,7 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2209,7 +2239,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <v>100000</v>
       </c>
       <c r="I18">
@@ -2233,17 +2263,17 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="7">
         <v>1.49022978027492</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="7">
         <v>1.5706246534010599</v>
       </c>
       <c r="Q18">
         <f>-(O18-P18)/(4*C18)</f>
         <v>1.0049359140767489</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="2">
         <f>ABS(N18-Q18)/N18*100</f>
         <v>0.95753180457321985</v>
       </c>
@@ -2251,7 +2281,7 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2275,7 +2305,7 @@
         <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>100000</v>
       </c>
       <c r="I19">
@@ -2299,17 +2329,17 @@
         <f t="shared" si="11"/>
         <v>1.0146515251355086</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="7">
         <v>1.00352781736546</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="7">
         <v>1.0748017476259</v>
       </c>
       <c r="Q19">
         <f>-(O19-P19)/(4*C19)</f>
         <v>0.89092412825549916</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="2">
         <f>ABS(N19-Q19)/N19*100</f>
         <v>12.194077849879093</v>
       </c>
@@ -2329,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2341,8 +2371,8 @@
     <col min="2" max="2" width="4.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
@@ -2377,19 +2407,19 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
@@ -2401,7 +2431,7 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
@@ -2440,21 +2470,21 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -2467,7 +2497,7 @@
         <f t="shared" ref="C2:C10" si="0">B2*(1+(3/8)*M2/N2)</f>
         <v>1.075</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>100000</v>
       </c>
       <c r="E2">
@@ -2485,7 +2515,7 @@
       <c r="I2">
         <v>0.45</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>0.50974405708346304</v>
       </c>
       <c r="K2">
@@ -2531,19 +2561,19 @@
       <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -2556,7 +2586,7 @@
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>100000</v>
       </c>
       <c r="E3">
@@ -2574,7 +2604,7 @@
       <c r="I3">
         <v>0.45</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>0.51029260731161696</v>
       </c>
       <c r="K3">
@@ -2620,19 +2650,19 @@
       <c r="Y3" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -2645,7 +2675,7 @@
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>100000</v>
       </c>
       <c r="E4">
@@ -2663,7 +2693,7 @@
       <c r="I4">
         <v>0.45</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>0.52004307948226103</v>
       </c>
       <c r="K4">
@@ -2709,19 +2739,19 @@
       <c r="Y4" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -2734,7 +2764,7 @@
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>100001</v>
       </c>
       <c r="E5">
@@ -2752,7 +2782,7 @@
       <c r="I5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>0.52023658688789198</v>
       </c>
       <c r="K5">
@@ -2798,19 +2828,19 @@
       <c r="Y5" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -2823,7 +2853,7 @@
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>100001</v>
       </c>
       <c r="E6">
@@ -2841,7 +2871,7 @@
       <c r="I6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>0.51407035175879401</v>
       </c>
       <c r="K6">
@@ -2896,62 +2926,62 @@
       <c r="Y6" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>100001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>0.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>0.52023658688789198</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>11.662714506952566</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>6.9125743707135241</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="2">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
@@ -2959,93 +2989,93 @@
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="2">
         <v>150</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="2">
         <f t="shared" si="5"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="2">
         <f t="shared" si="7"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>100001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>0.52023658688789198</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>11.662714506952566</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>6.9125743707135241</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3053,95 +3083,95 @@
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="2">
         <v>150</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="2">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2">
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="2">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>100001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>0.53</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>0.52098733289366195</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>11.823853379193384</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>7.0668583834077214</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3149,227 +3179,227 @@
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="2">
         <v>250</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="2">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="2">
         <v>0.2</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="2">
         <v>0.08</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="2">
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="2">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Y9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-    </row>
-    <row r="10" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>100001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.5</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>0.53</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>0.52694254198621604</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f t="shared" si="1"/>
         <v>13.102069539861786</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="9">
         <f t="shared" si="2"/>
         <v>8.2906991340353606</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>2E-3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="10">
         <v>300</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="10">
         <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="10">
         <v>0.22</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="10">
         <v>0.04</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="10">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="10">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-    </row>
-    <row r="11" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <f>20*M12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -3382,7 +3412,7 @@
         <f>B13*(1+(3/8)*M13/N13)</f>
         <v>1.075</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>100001</v>
       </c>
       <c r="E13">
@@ -3400,7 +3430,7 @@
       <c r="I13">
         <v>0.53</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>0.52197689202699504</v>
       </c>
       <c r="K13">
@@ -3411,10 +3441,10 @@
         <f>ABS(H13-J13)/H13*100</f>
         <v>7.2702203096989448</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="2">
         <f>5*M13</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3422,16 +3452,16 @@
         <f>20*M13</f>
         <v>0.1</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="12">
         <v>250</v>
       </c>
       <c r="T13">
@@ -3457,235 +3487,235 @@
       </c>
     </row>
     <row r="14" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <f>B14*(1+(3/8)*M14/N14)</f>
         <v>1.075</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>100001</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>6</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>0.5</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>0.53</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <v>0.52395329616751496</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f>ABS(G14-J14)/G14*100</f>
         <v>12.460462796204116</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <f>ABS(H14-J14)/H14*100</f>
         <v>7.6763863887207116</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <v>2E-3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <f>5*M14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f>20*M14</f>
         <v>0.04</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="10">
         <v>300</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="10">
         <f>M14</f>
         <v>2E-3</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="10">
         <v>0.16</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="10">
         <v>0.06</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="10">
         <f>6/T14</f>
         <v>3000</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="10">
         <f>1/T14</f>
         <v>500</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="5"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="J16" s="8"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
         <f>B17*(1+(3/8)*M17/N17)</f>
         <v>1.075</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>100001</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>6</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>0.5</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>0.53</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <v>0.52395329616749997</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <f>ABS(G17-J17)/G17*100</f>
         <v>12.4604627962009</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <f>ABS(H17-J17)/H17*100</f>
         <v>7.6763863887176322</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <v>2E-3</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <f>5*M17</f>
         <v>0.01</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f>20*M17</f>
         <v>0.04</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="10">
         <v>300</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="10">
         <f>M17</f>
         <v>2E-3</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>0.16</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="10">
         <v>0.06</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="10">
         <f>6/T17</f>
         <v>3000</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="10">
         <f>1/T17</f>
         <v>500</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="J18" s="8"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -3700,19 +3730,19 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J20" t="s">
@@ -3724,7 +3754,7 @@
       <c r="L20" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N20" t="s">
@@ -3775,7 +3805,7 @@
         <f>B21*(1+(3/8)*M21/N21)</f>
         <v>1.075</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>100000</v>
       </c>
       <c r="E21">
@@ -3793,7 +3823,7 @@
       <c r="I21">
         <v>0.53</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="5"/>
       <c r="K21">
         <f>ABS(G21-J21)/G21*100</f>
         <v>100</v>
@@ -3816,7 +3846,7 @@
       <c r="P21" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R21" t="s">
@@ -3845,7 +3875,7 @@
         <f>B22*(1+(3/8)*M22/N22)</f>
         <v>1.075</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>100000</v>
       </c>
       <c r="E22">
@@ -3863,7 +3893,7 @@
       <c r="I22">
         <v>0.53</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="5"/>
       <c r="K22">
         <f>ABS(G22-J22)/G22*100</f>
         <v>100</v>
@@ -3886,7 +3916,7 @@
       <c r="P22" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="R22" t="s">
@@ -3895,22 +3925,59 @@
       <c r="S22">
         <v>200</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="2">
         <v>0.2</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="2">
         <v>0.1</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="2">
         <f>6/T22</f>
         <v>1200</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="2">
         <f>V22*2/T22</f>
         <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="F30" s="16">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="G30" s="7">
+        <f>J10</f>
+        <v>0.52694254198621604</v>
+      </c>
+      <c r="H30" s="7">
+        <f>J17</f>
+        <v>0.52395329616749997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7">
+        <f>L10</f>
+        <v>8.2906991340353606</v>
+      </c>
+      <c r="H31">
+        <f>L17</f>
+        <v>7.6763863887176322</v>
       </c>
     </row>
   </sheetData>
@@ -3930,37 +3997,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="10" width="4.1640625" customWidth="1"/>
-    <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" customWidth="1"/>
-    <col min="19" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" customWidth="1"/>
-    <col min="22" max="22" width="5.5" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" customWidth="1"/>
-    <col min="25" max="26" width="12.33203125" customWidth="1"/>
-    <col min="27" max="1025" width="11.5"/>
+    <col min="1" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="19" width="8.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" customWidth="1"/>
+    <col min="24" max="25" width="12.33203125" customWidth="1"/>
+    <col min="26" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3970,238 +4037,238 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="X1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>9.5</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>5.5</v>
+      </c>
+      <c r="L2">
+        <f>SQRT(K2^2-(F2/2)^2)</f>
+        <v>3.7749172176353749</v>
+      </c>
+      <c r="M2">
+        <f>I2/2+L2</f>
+        <v>8.5249172176353749</v>
+      </c>
+      <c r="N2">
+        <f>L2+I2/2</f>
+        <v>8.5249172176353749</v>
+      </c>
+      <c r="O2">
+        <f>G2/D2</f>
+        <v>750</v>
+      </c>
+      <c r="P2">
+        <f>J2/D2</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <v>4.3718599999999999</v>
+      </c>
+      <c r="U4">
+        <v>200</v>
+      </c>
+      <c r="V4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="D5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F2">
+      <c r="E5">
         <v>0.4</v>
       </c>
-      <c r="G2">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="I5">
         <v>9.5</v>
       </c>
-      <c r="K2">
+      <c r="J5">
         <v>0.8</v>
       </c>
-      <c r="L2">
+      <c r="K5">
         <v>5.5</v>
       </c>
-      <c r="M2">
-        <f>SQRT(L2^2-(G2/2)^2)</f>
+      <c r="L5">
+        <f>SQRT(K5^2-(F5/2)^2)</f>
         <v>3.7749172176353749</v>
       </c>
-      <c r="N2">
-        <f>J2/2+M2</f>
+      <c r="M5">
+        <f>I5/2+L5</f>
         <v>8.5249172176353749</v>
       </c>
-      <c r="O2">
-        <f>M2+J2/2</f>
+      <c r="N5">
+        <f>L5+I5/2</f>
         <v>8.5249172176353749</v>
       </c>
-      <c r="P2">
-        <f>H2/E2</f>
-        <v>750</v>
-      </c>
-      <c r="Q2">
-        <f>K2/E2</f>
+      <c r="O5">
+        <f>F5/D5</f>
+        <v>1000</v>
+      </c>
+      <c r="P5">
+        <f>J5/D5</f>
         <v>100</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Q5">
+        <v>4.5</v>
+      </c>
+      <c r="R5" t="s">
         <v>41</v>
       </c>
-      <c r="V2">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="S5">
+        <v>2.7181199999999999</v>
+      </c>
+      <c r="U5">
+        <v>150</v>
+      </c>
+      <c r="V5" t="s">
         <v>70</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3">
-        <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4">
-        <v>4.3718599999999999</v>
-      </c>
-      <c r="V4">
-        <v>200</v>
-      </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>9.5</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>5.5</v>
-      </c>
-      <c r="M5">
-        <f>SQRT(L5^2-(G5/2)^2)</f>
-        <v>3.7749172176353749</v>
-      </c>
-      <c r="N5">
-        <f>J5/2+M5</f>
-        <v>8.5249172176353749</v>
-      </c>
-      <c r="O5">
-        <f>M5+J5/2</f>
-        <v>8.5249172176353749</v>
-      </c>
-      <c r="P5">
-        <f>G5/E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q5">
-        <f>K5/E5</f>
-        <v>100</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5">
-        <v>2.7181199999999999</v>
-      </c>
-      <c r="V5">
-        <v>150</v>
-      </c>
-      <c r="W5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4211,486 +4278,610 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F6">
         <v>0.4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="F6" s="13">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>71</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="I6" s="13">
         <v>9.5</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>0.8</v>
       </c>
-      <c r="L6" s="16">
+      <c r="K6" s="13">
         <v>5</v>
       </c>
+      <c r="L6">
+        <f>SQRT(K6^2-(F6/2)^2)</f>
+        <v>3</v>
+      </c>
       <c r="M6">
-        <f>SQRT(L6^2-(G6/2)^2)</f>
+        <f>I6/2+L6</f>
+        <v>7.75</v>
+      </c>
+      <c r="N6">
+        <f>L6+I6/2</f>
+        <v>7.75</v>
+      </c>
+      <c r="O6">
+        <f>F6/D6</f>
+        <v>1000</v>
+      </c>
+      <c r="P6">
+        <f>J6/D6</f>
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.5273500000000002</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="2">
+        <v>275</v>
+      </c>
+      <c r="V6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f>SQRT(K7^2-(F7/2)^2)</f>
         <v>3</v>
       </c>
-      <c r="N6">
-        <f>J6/2+M6</f>
+      <c r="M7">
+        <f>I7/2+L7</f>
         <v>7.75</v>
       </c>
-      <c r="O6">
-        <f>M6+J6/2</f>
+      <c r="N7">
+        <f>L7+I7/2</f>
         <v>7.75</v>
       </c>
-      <c r="P6">
-        <f>G6/E6</f>
-        <v>1000</v>
-      </c>
-      <c r="Q6">
-        <f>K6/E6</f>
+      <c r="O7">
+        <f>F7/D7</f>
+        <v>2000</v>
+      </c>
+      <c r="P7">
+        <f>J7/D7</f>
+        <v>200</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="2">
+        <v>200</v>
+      </c>
+      <c r="V7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="Q8">
+        <v>2.6</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8">
+        <v>260</v>
+      </c>
+      <c r="V8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9">
+        <v>2.669708</v>
+      </c>
+      <c r="U9">
+        <v>275</v>
+      </c>
+      <c r="V9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="Q10">
+        <v>2.7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10">
+        <v>2.6638799999999998</v>
+      </c>
+      <c r="U10">
+        <v>300</v>
+      </c>
+      <c r="V10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="Q11">
+        <v>2.7</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11">
+        <v>2.6639400000000002</v>
+      </c>
+      <c r="U11">
+        <v>600</v>
+      </c>
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="Q12">
+        <v>2.7</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>2.6639699999999999</v>
+      </c>
+      <c r="U12">
+        <v>1200</v>
+      </c>
+      <c r="V12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="Q13">
+        <v>3.7</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13">
+        <v>2.6621809999999999</v>
+      </c>
+      <c r="U13">
+        <v>2000</v>
+      </c>
+      <c r="V13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>9.5</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <f>SQRT(K14^2-(F14/2)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f>I14/2+L14</f>
+        <v>7.75</v>
+      </c>
+      <c r="N14">
+        <f>L14+I14/2</f>
+        <v>7.75</v>
+      </c>
+      <c r="O14">
+        <f>F14/D14</f>
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <f>J14/D14</f>
+        <v>75</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14">
+        <v>2.575758</v>
+      </c>
+      <c r="U14">
         <v>100</v>
       </c>
-      <c r="R6">
+      <c r="V14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15">
+        <v>2.5702470000000002</v>
+      </c>
+      <c r="U15">
+        <v>200</v>
+      </c>
+      <c r="V15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="Q16" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>2.5695049999999999</v>
+      </c>
+      <c r="U16" s="2">
+        <v>200</v>
+      </c>
+      <c r="V16" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>2E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>9.5</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>5.5</v>
+      </c>
+      <c r="L17">
+        <f>SQRT(K17^2-(F17/2)^2)</f>
+        <v>3.7749172176353749</v>
+      </c>
+      <c r="M17">
+        <f>I17/2+L17</f>
+        <v>8.5249172176353749</v>
+      </c>
+      <c r="N17">
+        <f>L17+I17/2</f>
+        <v>8.5249172176353749</v>
+      </c>
+      <c r="O17">
+        <f>F17/D17</f>
+        <v>4000</v>
+      </c>
+      <c r="P17">
+        <f>J17/D17</f>
+        <v>50</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17">
+        <v>2.7878790000000002</v>
+      </c>
+      <c r="U17">
+        <v>100</v>
+      </c>
+      <c r="V17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>2.75</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="B22" s="2">
+        <v>274</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f>A22/B22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>D22+9.5</f>
+        <v>9.5</v>
+      </c>
+      <c r="F22">
+        <f>(E22-9.5)/9.5*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="B23" s="2">
+        <v>274</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.4388399999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E26" si="0">D23+9.5</f>
+        <v>10.938839999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F26" si="1">(E23-9.5)/9.5*100</f>
+        <v>15.145684210526305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="B24" s="2">
+        <v>274</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.1477400000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>11.647740000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>22.607789473684218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="B25" s="2">
+        <v>274</v>
+      </c>
+      <c r="C25">
+        <v>191</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.5175800000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>12.017580000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>26.50084210526316</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>274</v>
+      </c>
+      <c r="C26">
+        <v>192</v>
+      </c>
+      <c r="D26" s="2">
         <v>2.5273500000000002</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" s="5">
-        <v>275</v>
-      </c>
-      <c r="W6" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F7">
-        <v>0.4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <f>SQRT(L7^2-(G7/2)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <f>J7/2+M7</f>
-        <v>7.75</v>
-      </c>
-      <c r="O7">
-        <f>M7+J7/2</f>
-        <v>7.75</v>
-      </c>
-      <c r="P7">
-        <f>G7/E7</f>
-        <v>2000</v>
-      </c>
-      <c r="Q7">
-        <f>K7/E7</f>
-        <v>200</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V7" s="5">
-        <v>200</v>
-      </c>
-      <c r="W7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="R8">
-        <v>2.6</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8">
-        <v>260</v>
-      </c>
-      <c r="W8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="R9">
-        <v>2.75</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9">
-        <v>2.669708</v>
-      </c>
-      <c r="V9">
-        <v>275</v>
-      </c>
-      <c r="W9" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="R10">
-        <v>2.7</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10">
-        <v>2.6638799999999998</v>
-      </c>
-      <c r="V10">
-        <v>300</v>
-      </c>
-      <c r="W10" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="R11">
-        <v>2.7</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11">
-        <v>2.6639400000000002</v>
-      </c>
-      <c r="V11">
-        <v>600</v>
-      </c>
-      <c r="W11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="R12">
-        <v>2.7</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12">
-        <v>2.6639699999999999</v>
-      </c>
-      <c r="V12">
-        <v>1200</v>
-      </c>
-      <c r="W12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="R13">
-        <v>3.7</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13">
-        <v>2.6621809999999999</v>
-      </c>
-      <c r="V13">
-        <v>2000</v>
-      </c>
-      <c r="W13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F14">
-        <v>0.4</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>9.5</v>
-      </c>
-      <c r="K14">
-        <v>0.3</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <f>SQRT(L14^2-(G14/2)^2)</f>
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <f>J14/2+M14</f>
-        <v>7.75</v>
-      </c>
-      <c r="O14">
-        <f>M14+J14/2</f>
-        <v>7.75</v>
-      </c>
-      <c r="P14">
-        <f>G14/E14</f>
-        <v>2000</v>
-      </c>
-      <c r="Q14">
-        <f>K14/E14</f>
-        <v>75</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14">
-        <v>2.575758</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
-      </c>
-      <c r="W14" t="s">
-        <v>74</v>
-      </c>
-      <c r="X14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15">
-        <v>2.5702470000000002</v>
-      </c>
-      <c r="V15">
-        <v>200</v>
-      </c>
-      <c r="W15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="R16" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5">
-        <v>2.5695049999999999</v>
-      </c>
-      <c r="V16" s="5">
-        <v>200</v>
-      </c>
-      <c r="W16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="5:30" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17">
-        <v>2E-3</v>
-      </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>9.5</v>
-      </c>
-      <c r="K17">
-        <v>0.1</v>
-      </c>
-      <c r="L17">
-        <v>5.5</v>
-      </c>
-      <c r="M17">
-        <f>SQRT(L17^2-(G17/2)^2)</f>
-        <v>3.7749172176353749</v>
-      </c>
-      <c r="N17">
-        <f>J17/2+M17</f>
-        <v>8.5249172176353749</v>
-      </c>
-      <c r="O17">
-        <f>M17+J17/2</f>
-        <v>8.5249172176353749</v>
-      </c>
-      <c r="P17">
-        <f>G17/E17</f>
-        <v>4000</v>
-      </c>
-      <c r="Q17">
-        <f>K17/E17</f>
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U17">
-        <v>2.7878790000000002</v>
-      </c>
-      <c r="V17">
-        <v>100</v>
-      </c>
-      <c r="W17" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="25" spans="5:30" x14ac:dyDescent="0.15">
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="5:30" x14ac:dyDescent="0.15">
-      <c r="N26" t="s">
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>12.02735</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>26.603684210526318</v>
+      </c>
+      <c r="M26" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="X14:AC14"/>
+    <mergeCell ref="X17:AC17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4704,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4723,7 +4914,8 @@
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" customWidth="1"/>
     <col min="11" max="11" width="11.5"/>
-    <col min="12" max="13" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
     <col min="14" max="14" width="5.6640625" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
     <col min="16" max="16" width="5.5" customWidth="1"/>
@@ -4956,14 +5148,14 @@
       <c r="V5" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="R6">
@@ -4998,14 +5190,14 @@
       <c r="U7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -5206,20 +5398,20 @@
         <f>J14/G14</f>
         <v>125</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="2">
         <f>M14/G14</f>
         <v>4</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="2">
         <v>2</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="2">
         <v>0.99497500000000005</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="2">
         <v>200</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="V14" t="s">
@@ -5230,30 +5422,30 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B16">
@@ -5310,17 +5502,17 @@
         <f>J16/G16</f>
         <v>125</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="2">
         <f>M16/G16</f>
         <v>4</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="2">
         <v>4</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="14">
         <v>0.42211100000000001</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="2">
         <v>200</v>
       </c>
       <c r="U16" t="s">
@@ -5337,13 +5529,13 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R17" s="5">
+      <c r="R17" s="2">
         <v>3.5</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="14">
         <v>0.39799299999999999</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="2">
         <v>300</v>
       </c>
       <c r="U17" t="s">
@@ -5414,15 +5606,15 @@
         <f>J18/G18</f>
         <v>75</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="2">
         <f>M18/G18</f>
         <v>4</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="2">
         <v>3</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
         <v>300</v>
       </c>
       <c r="U18" t="s">
@@ -5436,11 +5628,11 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R19" s="5">
+      <c r="R19" s="2">
         <v>3</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
         <v>600</v>
       </c>
       <c r="U19" t="s">
@@ -5511,15 +5703,15 @@
         <f>J20/G20</f>
         <v>75</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="2">
         <f>M20/G20</f>
         <v>4</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="2">
         <v>3</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
         <v>200</v>
       </c>
       <c r="U20" t="s">
@@ -5589,15 +5781,15 @@
         <f>J21/G21</f>
         <v>75</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="2">
         <f>M21/G21</f>
         <v>4</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="2">
         <v>3</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
         <v>100</v>
       </c>
       <c r="U21" t="s">
@@ -5614,13 +5806,13 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R22" s="5">
+      <c r="R22" s="2">
         <v>4</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="2">
         <v>2.6666699999999999</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="2">
         <v>100</v>
       </c>
       <c r="U22" t="s">
@@ -5634,12 +5826,12 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
         <v>2.75</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
         <v>275</v>
       </c>
       <c r="U23" t="s">
@@ -5706,7 +5898,7 @@
         <f>J24/G24</f>
         <v>75</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="2">
         <f>M24/G24</f>
         <v>4</v>
       </c>
@@ -5721,17 +5913,17 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R25" s="18">
+      <c r="R25" s="15">
         <v>2.75</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15">
         <v>200</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="U25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="V25" s="15" t="s">
         <v>94</v>
       </c>
       <c r="W25" t="s">
@@ -5745,13 +5937,13 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R26" s="5">
+      <c r="R26" s="2">
         <v>2.75</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="2">
         <v>2.4874399999999999</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="2">
         <v>550</v>
       </c>
       <c r="U26" t="s">
@@ -5771,7 +5963,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R27" s="5">
+      <c r="R27" s="2">
         <v>2.75</v>
       </c>
       <c r="S27">
@@ -5788,17 +5980,17 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R28" s="18">
+      <c r="R28" s="15">
         <v>2.75</v>
       </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15">
         <v>250</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="U28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V28" s="18" t="s">
+      <c r="V28" s="15" t="s">
         <v>94</v>
       </c>
       <c r="W28" t="s">
@@ -5806,11 +5998,11 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R29" s="5">
+      <c r="R29" s="2">
         <v>2.75</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
         <v>200</v>
       </c>
       <c r="U29" t="s">
@@ -5824,13 +6016,13 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R30" s="5">
+      <c r="R30" s="2">
         <v>2.75</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="2">
         <v>2.6396000000000002</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="2">
         <v>275</v>
       </c>
       <c r="V30" t="s">
@@ -5841,15 +6033,15 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R31" s="18">
+      <c r="R31" s="15">
         <v>2.75</v>
       </c>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15">
         <v>250</v>
       </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15" t="s">
         <v>94</v>
       </c>
       <c r="W31" t="s">
@@ -5860,13 +6052,13 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R32" s="5">
+      <c r="R32" s="2">
         <v>2.75</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="2">
         <v>2.6394500000000001</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="2">
         <v>200</v>
       </c>
       <c r="V32" t="s">
@@ -5922,9 +6114,9 @@
       <c r="Q33" t="s">
         <v>90</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34">
@@ -5983,17 +6175,17 @@
         <f>J34/G34</f>
         <v>75</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="2">
         <f>M34/G34</f>
         <v>10</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="2">
         <v>2.75</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="2">
         <v>2.7198899999999999</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="2">
         <v>275</v>
       </c>
       <c r="U34" t="s">
@@ -6007,15 +6199,15 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R35" s="18">
+      <c r="R35" s="15">
         <v>2.75</v>
       </c>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18">
+      <c r="S35" s="15"/>
+      <c r="T35" s="15">
         <v>350</v>
       </c>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18" t="s">
+      <c r="U35" s="15"/>
+      <c r="V35" s="15" t="s">
         <v>94</v>
       </c>
       <c r="X35" t="s">
@@ -6023,16 +6215,16 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R36" s="5">
+      <c r="R36" s="2">
         <v>2.75</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="2">
         <v>0.13395399999999999</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="16">
         <v>350</v>
       </c>
-      <c r="U36" s="19"/>
+      <c r="U36" s="16"/>
       <c r="V36" t="s">
         <v>114</v>
       </c>
@@ -6041,14 +6233,14 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R37" s="5">
+      <c r="R37" s="2">
         <v>2.75</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="19">
+      <c r="S37" s="2"/>
+      <c r="T37" s="16">
         <v>350</v>
       </c>
-      <c r="U37" s="19"/>
+      <c r="U37" s="16"/>
       <c r="V37" t="s">
         <v>114</v>
       </c>
@@ -6057,27 +6249,27 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R38" s="19">
+      <c r="R38" s="16">
         <v>3.5</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19">
+      <c r="S38" s="16"/>
+      <c r="T38" s="16">
         <v>350</v>
       </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
       <c r="X38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R39" s="5"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19">
+      <c r="R39" s="2"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16">
         <v>700</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40">
@@ -6136,7 +6328,7 @@
         <f>J40/G40</f>
         <v>75</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="2">
         <f>M40/G40</f>
         <v>4</v>
       </c>
@@ -6216,17 +6408,17 @@
         <f>J41/G41</f>
         <v>93.75</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="2">
         <f>M41/G41</f>
         <v>4</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="2">
         <v>2.75</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="2">
         <v>275</v>
       </c>
       <c r="U41" t="s">
@@ -6254,22 +6446,22 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R43" s="18">
+      <c r="R43" s="15">
         <v>3</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="15">
         <v>2.7591999999999999</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="15">
         <v>300</v>
       </c>
-      <c r="U43" s="18" t="s">
+      <c r="U43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V43" s="18" t="s">
+      <c r="V43" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="W43" s="18" t="s">
+      <c r="W43" s="15" t="s">
         <v>47</v>
       </c>
       <c r="X43" t="s">
@@ -6333,7 +6525,7 @@
         <f>J44/G44</f>
         <v>93.75</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="2">
         <f>M44/G44</f>
         <v>10</v>
       </c>
@@ -6351,11 +6543,11 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R45" s="5">
+      <c r="R45" s="2">
         <v>2.85</v>
       </c>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2">
         <v>400</v>
       </c>
       <c r="V45" t="s">
@@ -6379,63 +6571,63 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
         <v>1000</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <v>0.2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <v>200</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="2">
         <f>(3*D48-2*C48)/(2*(C48+3*D48))</f>
         <v>0.49950016661112961</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="2">
         <f>2*C48*(1+E48)</f>
         <v>0.59980006664445185</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="2">
         <v>0.04</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="2">
         <v>0.5</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="2">
         <v>0.75</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="2">
         <f>-1*G48</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="2">
         <f>-K48*2</f>
         <v>1.6E-2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="2">
         <f>20*G48</f>
         <v>0.16</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="2">
         <f>2*G48</f>
         <v>1.6E-2</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="2">
         <f>N48</f>
         <v>1.6E-2</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="2">
         <f>J48/G48</f>
         <v>93.75</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="2">
         <f>M48/G48</f>
         <v>20</v>
       </c>
@@ -6467,67 +6659,67 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A50" s="5">
-        <v>1</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
         <v>1000</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="2">
         <v>0.2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="2">
         <v>200</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="2">
         <f>(3*D50-2*C50)/(2*(C50+3*D50))</f>
         <v>0.49950016661112961</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="2">
         <f>2*C50*(1+E50)</f>
         <v>0.59980006664445185</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="2">
         <v>0.04</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="2">
         <v>0.5</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="2">
         <v>0.75</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="2">
         <f>-1*G50</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="2">
         <f>-K50*2</f>
         <v>1.6E-2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="2">
         <f>18*G50</f>
         <v>0.14400000000000002</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="2">
         <f>2*G50</f>
         <v>1.6E-2</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="2">
         <f>N50</f>
         <v>1.6E-2</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50" s="2">
         <f>J50/G50</f>
         <v>93.75</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50" s="2">
         <f>M50/G50</f>
         <v>18</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="2">
         <v>2.85</v>
       </c>
       <c r="S50">
@@ -6543,6 +6735,313 @@
     <row r="51" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T51">
         <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2">
+        <f>(3*D54-2*C54)/(2*(C54+3*D54))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="F54" s="2">
+        <f>2*C54*(1+E54)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K54" s="2">
+        <f>-2*G54</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="L54" s="2">
+        <f>-K54*2</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M54" s="2">
+        <f>4*G54</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N54" s="2">
+        <f>2*G54</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O54" s="2">
+        <f>N54</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="P54" s="2">
+        <f>J54/G54</f>
+        <v>93.75</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>M54/G54</f>
+        <v>4</v>
+      </c>
+      <c r="R54" s="15">
+        <v>3</v>
+      </c>
+      <c r="S54" s="15">
+        <v>2.7591999999999999</v>
+      </c>
+      <c r="T54" s="15">
+        <v>300</v>
+      </c>
+      <c r="U54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>299</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>D59/E59*F59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>1.5+G59</f>
+        <v>1.5</v>
+      </c>
+      <c r="I59">
+        <f>(H59-1.5)/1.5*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>299</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" ref="G60:G64" si="0">D60/E60*F60</f>
+        <v>0.50167224080267558</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ref="H60:H64" si="1">1.5+G60</f>
+        <v>2.0016722408026757</v>
+      </c>
+      <c r="I60" s="2">
+        <f>(H60-1.5)/1.5*100</f>
+        <v>33.444816053511708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>299</v>
+      </c>
+      <c r="F61">
+        <v>150</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5050167224080269</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0050167224080271</v>
+      </c>
+      <c r="I61" s="2">
+        <f>(H61-1.5)/1.5*100</f>
+        <v>100.33444816053515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>299</v>
+      </c>
+      <c r="F62">
+        <v>250</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>2.508361204013378</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0083612040133776</v>
+      </c>
+      <c r="I62" s="2">
+        <f>(H62-1.5)/1.5*100</f>
+        <v>167.22408026755852</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>299</v>
+      </c>
+      <c r="F63">
+        <v>274</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7491638795986622</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2491638795986617</v>
+      </c>
+      <c r="I63" s="2">
+        <f>(H63-1.5)/1.5*100</f>
+        <v>183.27759197324411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>299</v>
+      </c>
+      <c r="F64">
+        <v>275</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7591973244147159</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2591973244147159</v>
+      </c>
+      <c r="I64" s="2">
+        <f>(H64-1.5)/1.5*100</f>
+        <v>183.94648829431441</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A4619-BD88-E343-A8A2-A9614AD8B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C830886-F2EA-664E-9FC9-CE0894DC7E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="22520" windowHeight="14920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -624,16 +624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>67040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>881780</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,8 +652,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10516320" y="3022200"/>
-          <a:ext cx="2570760" cy="3522600"/>
+          <a:off x="4080240" y="4159620"/>
+          <a:ext cx="2745140" cy="3567740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -4000,7 +4000,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C830886-F2EA-664E-9FC9-CE0894DC7E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF33DC-42F8-2248-A88A-7284DEFA2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6925,7 +6925,7 @@
         <v>1.5</v>
       </c>
       <c r="I59">
-        <f>(H59-1.5)/1.5*100</f>
+        <f t="shared" ref="I59:I64" si="0">(H59-1.5)/1.5*100</f>
         <v>0</v>
       </c>
     </row>
@@ -6940,15 +6940,15 @@
         <v>50</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" ref="G60:G64" si="0">D60/E60*F60</f>
+        <f t="shared" ref="G60:G64" si="1">D60/E60*F60</f>
         <v>0.50167224080267558</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" ref="H60:H64" si="1">1.5+G60</f>
+        <f t="shared" ref="H60:H64" si="2">1.5+G60</f>
         <v>2.0016722408026757</v>
       </c>
       <c r="I60" s="2">
-        <f>(H60-1.5)/1.5*100</f>
+        <f t="shared" si="0"/>
         <v>33.444816053511708</v>
       </c>
     </row>
@@ -6963,15 +6963,15 @@
         <v>150</v>
       </c>
       <c r="G61" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5050167224080269</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0050167224080271</v>
+      </c>
+      <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>1.5050167224080269</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0050167224080271</v>
-      </c>
-      <c r="I61" s="2">
-        <f>(H61-1.5)/1.5*100</f>
         <v>100.33444816053515</v>
       </c>
     </row>
@@ -6986,15 +6986,15 @@
         <v>250</v>
       </c>
       <c r="G62" s="2">
+        <f t="shared" si="1"/>
+        <v>2.508361204013378</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0083612040133776</v>
+      </c>
+      <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>2.508361204013378</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0083612040133776</v>
-      </c>
-      <c r="I62" s="2">
-        <f>(H62-1.5)/1.5*100</f>
         <v>167.22408026755852</v>
       </c>
     </row>
@@ -7009,15 +7009,15 @@
         <v>274</v>
       </c>
       <c r="G63" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7491638795986622</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2491638795986617</v>
+      </c>
+      <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>2.7491638795986622</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2491638795986617</v>
-      </c>
-      <c r="I63" s="2">
-        <f>(H63-1.5)/1.5*100</f>
         <v>183.27759197324411</v>
       </c>
     </row>
@@ -7032,15 +7032,15 @@
         <v>275</v>
       </c>
       <c r="G64" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7591973244147159</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2591973244147159</v>
+      </c>
+      <c r="I64" s="2">
         <f t="shared" si="0"/>
-        <v>2.7591973244147159</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2591973244147159</v>
-      </c>
-      <c r="I64" s="2">
-        <f>(H64-1.5)/1.5*100</f>
         <v>183.94648829431441</v>
       </c>
     </row>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF33DC-42F8-2248-A88A-7284DEFA2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EEC58F-48AD-2D49-943A-D7A097A3F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EEC58F-48AD-2D49-943A-D7A097A3F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBADC68-C1B3-274E-A978-195EED45B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19140" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="22780" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="132">
   <si>
     <t>Delta</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>% Error</t>
+  </si>
+  <si>
+    <t>Using same setup as one above, just extended the number of steps</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2361,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2371,7 +2374,7 @@
     <col min="2" max="2" width="4.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
@@ -2385,8 +2388,8 @@
     <col min="17" max="17" width="11.5"/>
     <col min="18" max="18" width="5.5" customWidth="1"/>
     <col min="19" max="19" width="6.83203125" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" customWidth="1"/>
-    <col min="21" max="21" width="4.5" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="6.5" customWidth="1"/>
     <col min="22" max="22" width="5.83203125" customWidth="1"/>
     <col min="23" max="23" width="7.5" customWidth="1"/>
     <col min="24" max="24" width="7.1640625" customWidth="1"/>
@@ -3602,7 +3605,7 @@
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -3672,8 +3675,8 @@
       <c r="U17" s="10">
         <v>0.16</v>
       </c>
-      <c r="V17" s="10">
-        <v>0.06</v>
+      <c r="V17" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="W17" s="10">
         <f>6/T17</f>
@@ -3687,10 +3690,33 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="10">
+        <f>5*M18</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S18">
+        <v>325</v>
+      </c>
+      <c r="T18" s="10">
+        <f>M18</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U18">
+        <v>0.1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -3717,7 +3743,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3794,7 +3820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3864,7 +3890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3943,7 +3969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>129</v>
       </c>
@@ -3954,7 +3980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F30" s="16">
         <v>0.48659999999999998</v>
       </c>
@@ -3967,7 +3993,7 @@
         <v>0.52395329616749997</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>130</v>
       </c>
@@ -4000,7 +4026,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4897,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBADC68-C1B3-274E-A978-195EED45B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23859EE0-12F2-C544-BDCD-09C2AC6B35BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="22780" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <t>% Error</t>
   </si>
   <si>
-    <t>Using same setup as one above, just extended the number of steps</t>
+    <t>Using same setup as below, just extended the number of steps</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +496,18 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFCD3C1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -509,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -529,6 +541,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2380,7 +2395,7 @@
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
     <col min="10" max="11" width="11.5"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="6.5" customWidth="1"/>
@@ -2522,7 +2537,7 @@
         <v>0.50974405708346304</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="1">ABS(G2-J2)/G2*100</f>
+        <f t="shared" ref="K2:K9" si="1">ABS(G2-J2)/G2*100</f>
         <v>9.4106153860191171</v>
       </c>
       <c r="L2">
@@ -3167,7 +3182,7 @@
         <f t="shared" si="1"/>
         <v>11.823853379193384</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="17">
         <f t="shared" si="2"/>
         <v>7.0668583834077214</v>
       </c>
@@ -3259,8 +3274,8 @@
       <c r="J10" s="9">
         <v>0.52694254198621604</v>
       </c>
-      <c r="K10" s="10">
-        <f t="shared" si="1"/>
+      <c r="K10" s="9">
+        <f>ABS(G10-J10)/G10*100</f>
         <v>13.102069539861786</v>
       </c>
       <c r="L10" s="9">
@@ -3362,34 +3377,34 @@
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <f>20*M12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -3489,123 +3504,187 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
+    <row r="14" spans="1:36" s="16" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
         <f>B14*(1+(3/8)*M14/N14)</f>
         <v>1.075</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="18">
         <v>100001</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="16">
         <v>6</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="16">
         <v>0.5</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="16">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="16">
         <v>0.48659999999999998</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="16">
         <v>0.53</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="18">
         <v>0.52395329616751496</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="16">
         <f>ABS(G14-J14)/G14*100</f>
         <v>12.460462796204116</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="16">
         <f>ABS(H14-J14)/H14*100</f>
         <v>7.6763863887207116</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="16">
         <v>2E-3</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="16">
         <f>5*M14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="16">
         <f>20*M14</f>
         <v>0.04</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="16">
         <v>300</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="16">
         <f>M14</f>
         <v>2E-3</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="16">
         <v>0.16</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="16">
         <v>0.06</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="16">
         <f>6/T14</f>
         <v>3000</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="16">
         <f>1/T14</f>
         <v>500</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16*(1+(3/8)*M16/N16)</f>
+        <v>1.075</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.519920705566292</v>
+      </c>
+      <c r="K16" s="9">
+        <f>ABS(G16-J16)/G16*100</f>
+        <v>11.594914266214213</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" ref="L16" si="8">ABS(H16-J16)/H16*100</f>
+        <v>6.8476583572322278</v>
+      </c>
+      <c r="M16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N16" s="10">
+        <f>5*M16</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O16" s="16">
+        <f>20*M16</f>
+        <v>0.1</v>
+      </c>
+      <c r="S16">
+        <v>325</v>
+      </c>
+      <c r="T16" s="10">
+        <f>M16</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U16">
+        <v>0.1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -3690,60 +3769,37 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="J18" s="5"/>
-      <c r="M18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N18" s="10">
-        <f>5*M18</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S18">
-        <v>325</v>
-      </c>
-      <c r="T18" s="10">
-        <f>M18</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="U18">
-        <v>0.1</v>
-      </c>
-      <c r="V18" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3820,7 +3876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3890,7 +3946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3969,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>129</v>
       </c>
@@ -3980,7 +4036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F30" s="16">
         <v>0.48659999999999998</v>
       </c>
@@ -3993,7 +4049,7 @@
         <v>0.52395329616749997</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>130</v>
       </c>
@@ -4123,14 +4179,14 @@
       <c r="W1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="D2">
@@ -4647,14 +4703,14 @@
       <c r="W14" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="Q15">
@@ -4760,14 +4816,14 @@
       <c r="W17" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="X17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -5174,14 +5230,14 @@
       <c r="V5" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="R6">
@@ -5216,14 +5272,14 @@
       <c r="U7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -5448,30 +5504,30 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B16">

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23859EE0-12F2-C544-BDCD-09C2AC6B35BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B8DF9-C5D5-DA4C-BCD1-7820682A1177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2392,7 +2392,7 @@
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
     <col min="10" max="11" width="11.5"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
@@ -2512,8 +2512,8 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C10" si="0">B2*(1+(3/8)*M2/N2)</f>
-        <v>1.075</v>
+        <f>B2*(1+(3/2)*M2/N2)</f>
+        <v>1.3</v>
       </c>
       <c r="D2" s="5">
         <v>100000</v>
@@ -2528,7 +2528,7 @@
         <v>0.46589999999999998</v>
       </c>
       <c r="H2">
-        <v>0.48659999999999998</v>
+        <v>0.5454</v>
       </c>
       <c r="I2">
         <v>0.45</v>
@@ -2537,22 +2537,22 @@
         <v>0.50974405708346304</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" si="1">ABS(G2-J2)/G2*100</f>
+        <f t="shared" ref="K2:K9" si="0">ABS(G2-J2)/G2*100</f>
         <v>9.4106153860191171</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L10" si="2">ABS(H2-J2)/H2*100</f>
-        <v>4.7562797130010406</v>
+        <f t="shared" ref="L2:L10" si="1">ABS(H2-J2)/H2*100</f>
+        <v>6.5375766256943439</v>
       </c>
       <c r="M2">
         <v>0.02</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N10" si="3">5*M2</f>
+        <f t="shared" ref="N2:N10" si="2">5*M2</f>
         <v>0.1</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O10" si="4">20*M2</f>
+        <f t="shared" ref="O2:O10" si="3">20*M2</f>
         <v>0.4</v>
       </c>
       <c r="P2" t="s">
@@ -2565,15 +2565,15 @@
         <v>41</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T10" si="5">M2</f>
+        <f t="shared" ref="T2:T10" si="4">M2</f>
         <v>0.02</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W10" si="6">6/T2</f>
+        <f t="shared" ref="W2:W10" si="5">6/T2</f>
         <v>300</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X10" si="7">1/T2</f>
+        <f t="shared" ref="X2:X10" si="6">1/T2</f>
         <v>50</v>
       </c>
       <c r="Y2" t="s">
@@ -2600,9 +2600,9 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C10" si="7">B3*(1+(3/2)*M3/N3)</f>
+        <v>1.3</v>
       </c>
       <c r="D3" s="5">
         <v>100000</v>
@@ -2616,8 +2616,8 @@
       <c r="G3">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H3">
-        <v>0.48659999999999998</v>
+      <c r="H3" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I3">
         <v>0.45</v>
@@ -2626,22 +2626,22 @@
         <v>0.51029260731161696</v>
       </c>
       <c r="K3">
+        <f t="shared" si="0"/>
+        <v>9.5283552933283922</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="1"/>
-        <v>9.5283552933283922</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="2"/>
-        <v>4.8690109559426613</v>
+        <v>6.4369990261061663</v>
       </c>
       <c r="M3">
         <v>1.2E-2</v>
       </c>
       <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="P3" t="s">
@@ -2654,15 +2654,15 @@
         <v>41</v>
       </c>
       <c r="T3">
+        <f t="shared" si="4"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="W3">
         <f t="shared" si="5"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="W3">
+        <v>500</v>
+      </c>
+      <c r="X3">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="7"/>
         <v>83.333333333333329</v>
       </c>
       <c r="Y3" t="s">
@@ -2689,9 +2689,9 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+      <c r="C4" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D4" s="5">
         <v>100000</v>
@@ -2705,8 +2705,8 @@
       <c r="G4">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H4">
-        <v>0.48659999999999998</v>
+      <c r="H4" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I4">
         <v>0.45</v>
@@ -2715,22 +2715,22 @@
         <v>0.52004307948226103</v>
       </c>
       <c r="K4">
+        <f t="shared" si="0"/>
+        <v>11.621180399712609</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="1"/>
-        <v>11.621180399712609</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>6.8728071274683629</v>
+        <v>4.6492336849539724</v>
       </c>
       <c r="M4">
         <v>1.2E-2</v>
       </c>
       <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="P4" t="s">
@@ -2743,15 +2743,15 @@
         <v>41</v>
       </c>
       <c r="T4">
+        <f t="shared" si="4"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="5"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="W4">
+        <v>500</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="7"/>
         <v>83.333333333333329</v>
       </c>
       <c r="Y4" t="s">
@@ -2778,9 +2778,9 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+      <c r="C5" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D5" s="5">
         <v>100001</v>
@@ -2794,8 +2794,8 @@
       <c r="G5">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H5">
-        <v>0.48659999999999998</v>
+      <c r="H5" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I5">
         <v>0.55000000000000004</v>
@@ -2804,22 +2804,22 @@
         <v>0.52023658688789198</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
+        <v>11.662714506952566</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>11.662714506952566</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>6.9125743707135241</v>
+        <v>4.6137537792643961</v>
       </c>
       <c r="M5">
         <v>0.01</v>
       </c>
       <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P5" t="s">
@@ -2832,15 +2832,15 @@
         <v>41</v>
       </c>
       <c r="T5">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="W5">
+        <v>600</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="Y5" t="s">
@@ -2867,9 +2867,9 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+      <c r="C6" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D6" s="5">
         <v>100001</v>
@@ -2883,8 +2883,8 @@
       <c r="G6">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H6">
-        <v>0.48659999999999998</v>
+      <c r="H6" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I6">
         <v>0.55000000000000004</v>
@@ -2893,22 +2893,22 @@
         <v>0.51407035175879401</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
+        <v>10.339204069283973</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>10.339204069283973</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>5.6453661649802784</v>
+        <v>5.7443432785489525</v>
       </c>
       <c r="M6">
         <v>0.01</v>
       </c>
       <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P6" t="s">
@@ -2924,7 +2924,7 @@
         <v>200</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="U6">
@@ -2934,11 +2934,11 @@
         <v>0.18</v>
       </c>
       <c r="W6">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="Y6" t="s">
@@ -2964,8 +2964,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D7" s="7">
         <v>100001</v>
@@ -2980,7 +2980,7 @@
         <v>0.46589999999999998</v>
       </c>
       <c r="H7" s="2">
-        <v>0.48659999999999998</v>
+        <v>0.5454</v>
       </c>
       <c r="I7" s="2">
         <v>0.55000000000000004</v>
@@ -2989,22 +2989,22 @@
         <v>0.52023658688789198</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>11.662714506952566</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>11.662714506952566</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>6.9125743707135241</v>
+        <v>4.6137537792643961</v>
       </c>
       <c r="M7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -3020,17 +3020,17 @@
         <v>150</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X7" s="2">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" si="7"/>
         <v>166.66666666666666</v>
       </c>
       <c r="Y7" s="2" t="s">
@@ -3058,8 +3058,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D8" s="7">
         <v>100001</v>
@@ -3074,7 +3074,7 @@
         <v>0.46589999999999998</v>
       </c>
       <c r="H8" s="2">
-        <v>0.48659999999999998</v>
+        <v>0.5454</v>
       </c>
       <c r="I8" s="2">
         <v>0.55000000000000004</v>
@@ -3083,22 +3083,22 @@
         <v>0.52023658688789198</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>11.662714506952566</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>11.662714506952566</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>6.9125743707135241</v>
+        <v>4.6137537792643961</v>
       </c>
       <c r="M8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -3114,17 +3114,17 @@
         <v>150</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="X8" s="2">
         <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="X8" s="2">
-        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="Y8" s="2" t="s">
@@ -3154,8 +3154,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D9" s="7">
         <v>100001</v>
@@ -3170,7 +3170,7 @@
         <v>0.46589999999999998</v>
       </c>
       <c r="H9" s="2">
-        <v>0.48659999999999998</v>
+        <v>0.5454</v>
       </c>
       <c r="I9" s="2">
         <v>0.53</v>
@@ -3179,22 +3179,22 @@
         <v>0.52098733289366195</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>11.823853379193384</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="1"/>
-        <v>11.823853379193384</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="2"/>
-        <v>7.0668583834077214</v>
+        <v>4.4761032464866242</v>
       </c>
       <c r="M9" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -3210,7 +3210,7 @@
         <v>250</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U9" s="2">
@@ -3220,11 +3220,11 @@
         <v>0.08</v>
       </c>
       <c r="W9" s="2">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="X9" s="2">
         <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="Y9" s="2" t="s">
@@ -3249,9 +3249,9 @@
       <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="10">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
+      <c r="C10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
       </c>
       <c r="D10" s="9">
         <v>100001</v>
@@ -3265,8 +3265,8 @@
       <c r="G10" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H10" s="10">
-        <v>0.48659999999999998</v>
+      <c r="H10" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I10" s="10">
         <v>0.53</v>
@@ -3279,18 +3279,18 @@
         <v>13.102069539861786</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="2"/>
-        <v>8.2906991340353606</v>
+        <f t="shared" si="1"/>
+        <v>3.3842057230993685</v>
       </c>
       <c r="M10" s="10">
         <v>2E-3</v>
       </c>
       <c r="N10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="P10" s="10" t="s">
@@ -3306,7 +3306,7 @@
         <v>300</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="U10" s="10">
@@ -3316,11 +3316,11 @@
         <v>0.04</v>
       </c>
       <c r="W10" s="10">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="X10" s="10">
         <f t="shared" si="6"/>
-        <v>3000</v>
-      </c>
-      <c r="X10" s="10">
-        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -3426,9 +3426,9 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
-        <f>B13*(1+(3/8)*M13/N13)</f>
-        <v>1.075</v>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C14" si="8">B13*(1+(3/2)*M13/N13)</f>
+        <v>1.3</v>
       </c>
       <c r="D13" s="5">
         <v>100001</v>
@@ -3442,8 +3442,8 @@
       <c r="G13">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H13">
-        <v>0.48659999999999998</v>
+      <c r="H13" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I13">
         <v>0.53</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="L13">
         <f>ABS(H13-J13)/H13*100</f>
-        <v>7.2702203096989448</v>
+        <v>4.2946659283104056</v>
       </c>
       <c r="M13" s="2">
         <v>5.0000000000000001E-3</v>
@@ -3511,9 +3511,9 @@
       <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
-        <f>B14*(1+(3/8)*M14/N14)</f>
-        <v>1.075</v>
+      <c r="C14" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
       </c>
       <c r="D14" s="18">
         <v>100001</v>
@@ -3527,8 +3527,8 @@
       <c r="G14" s="16">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H14" s="16">
-        <v>0.48659999999999998</v>
+      <c r="H14" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I14" s="16">
         <v>0.53</v>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="L14" s="16">
         <f>ABS(H14-J14)/H14*100</f>
-        <v>7.6763863887207116</v>
+        <v>3.9322889315154081</v>
       </c>
       <c r="M14" s="16">
         <v>2E-3</v>
@@ -3624,8 +3624,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <f>B16*(1+(3/8)*M16/N16)</f>
-        <v>1.075</v>
+        <f t="shared" ref="C16:C17" si="9">B16*(1+(3/2)*M16/N16)</f>
+        <v>1.3</v>
       </c>
       <c r="D16" s="7">
         <v>100001</v>
@@ -3639,8 +3639,8 @@
       <c r="G16" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H16" s="10">
-        <v>0.48659999999999998</v>
+      <c r="H16" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I16" s="10">
         <v>0.53</v>
@@ -3653,8 +3653,8 @@
         <v>11.594914266214213</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" ref="L16" si="8">ABS(H16-J16)/H16*100</f>
-        <v>6.8476583572322278</v>
+        <f t="shared" ref="L16" si="10">ABS(H16-J16)/H16*100</f>
+        <v>4.671671146627796</v>
       </c>
       <c r="M16">
         <v>5.0000000000000001E-3</v>
@@ -3691,9 +3691,9 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="10">
-        <f>B17*(1+(3/8)*M17/N17)</f>
-        <v>1.075</v>
+      <c r="C17" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
       <c r="D17" s="9">
         <v>100001</v>
@@ -3707,8 +3707,8 @@
       <c r="G17" s="10">
         <v>0.46589999999999998</v>
       </c>
-      <c r="H17" s="10">
-        <v>0.48659999999999998</v>
+      <c r="H17" s="2">
+        <v>0.5454</v>
       </c>
       <c r="I17" s="10">
         <v>0.53</v>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="L17" s="10">
         <f>ABS(H17-J17)/H17*100</f>
-        <v>7.6763863887176322</v>
+        <v>3.9322889315181562</v>
       </c>
       <c r="M17" s="10">
         <v>2E-3</v>
@@ -3883,9 +3883,9 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <f>B21*(1+(3/8)*M21/N21)</f>
-        <v>1.075</v>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:C22" si="11">B21*(1+(3/2)*M21/N21)</f>
+        <v>1.3</v>
       </c>
       <c r="D21" s="5">
         <v>100000</v>
@@ -3953,9 +3953,9 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
-        <f>B22*(1+(3/8)*M22/N22)</f>
-        <v>1.075</v>
+      <c r="C22" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3</v>
       </c>
       <c r="D22" s="5">
         <v>100000</v>
@@ -4025,6 +4025,45 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="7"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="19"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="16"/>
+      <c r="T25" s="10"/>
+    </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>129</v>
@@ -4037,16 +4076,14 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F30" s="16">
-        <v>0.48659999999999998</v>
+      <c r="F30" s="2">
+        <v>0.5454</v>
       </c>
       <c r="G30" s="7">
-        <f>J10</f>
-        <v>0.52694254198621604</v>
+        <v>0.52098733289366195</v>
       </c>
       <c r="H30" s="7">
-        <f>J17</f>
-        <v>0.52395329616749997</v>
+        <v>0.519920705566292</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
@@ -4054,12 +4091,12 @@
         <v>130</v>
       </c>
       <c r="G31" s="7">
-        <f>L10</f>
-        <v>8.2906991340353606</v>
-      </c>
-      <c r="H31">
-        <f>L17</f>
-        <v>7.6763863887176322</v>
+        <f>L9</f>
+        <v>4.4761032464866242</v>
+      </c>
+      <c r="H31" s="7">
+        <f>L16</f>
+        <v>4.671671146627796</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B8DF9-C5D5-DA4C-BCD1-7820682A1177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92879DA5-998D-8C40-99DE-782078053572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/Phase_Field_Fracture/LengthTest.xlsx
+++ b/Phase_Field_Fracture/LengthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92879DA5-998D-8C40-99DE-782078053572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E431D3-3777-5F48-8149-ED474BFC3A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="20480" windowHeight="15140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpLoad" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="131">
   <si>
     <t>Delta</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve">Deleted </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clamped top: Stabilized </t>
   </si>
   <si>
     <t>--- Starting of Time step 21: t = 0.422111 ---</t>
@@ -453,7 +450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -508,6 +499,24 @@
         <bgColor rgb="FFFCD3C1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -521,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -537,13 +546,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,6 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,16 +702,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>72020</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>84720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>107520</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>169380</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>120220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -3182,7 +3194,7 @@
         <f t="shared" si="0"/>
         <v>11.823853379193384</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <f t="shared" si="1"/>
         <v>4.4761032464866242</v>
       </c>
@@ -3377,34 +3389,34 @@
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19">
         <f>20*M12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -3504,117 +3516,117 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="16" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16">
+    <row r="14" spans="1:36" s="15" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>100001</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>6</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.46589999999999998</v>
       </c>
       <c r="H14" s="2">
         <v>0.5454</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.53</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>0.52395329616751496</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f>ABS(G14-J14)/G14*100</f>
         <v>12.460462796204116</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <f>ABS(H14-J14)/H14*100</f>
         <v>3.9322889315154081</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>2E-3</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <f>5*M14</f>
         <v>0.01</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <f>20*M14</f>
         <v>0.04</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="15">
         <v>300</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <f>M14</f>
         <v>2E-3</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="15">
         <v>0.16</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="15">
         <v>0.06</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="15">
         <f>6/T14</f>
         <v>3000</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="15">
         <f>1/T14</f>
         <v>500</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Y14" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -3652,7 +3664,7 @@
         <f>ABS(G16-J16)/G16*100</f>
         <v>11.594914266214213</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <f t="shared" ref="L16" si="10">ABS(H16-J16)/H16*100</f>
         <v>4.671671146627796</v>
       </c>
@@ -3663,7 +3675,7 @@
         <f>5*M16</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <f>20*M16</f>
         <v>0.1</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>71</v>
       </c>
       <c r="Z16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
@@ -3773,31 +3785,31 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -4032,20 +4044,20 @@
       <c r="D24" s="7"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -4054,25 +4066,30 @@
     </row>
     <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="7"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="19"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="16"/>
-      <c r="T25" s="10"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
@@ -4088,7 +4105,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="7">
         <f>L9</f>
@@ -4119,7 +4136,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4216,14 +4233,14 @@
       <c r="W1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="D2">
@@ -4388,75 +4405,75 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23">
         <v>1000</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>0.4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="24">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="23">
         <v>2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="24">
         <v>9.5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="23">
         <v>0.8</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="24">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="23">
         <f>SQRT(K6^2-(F6/2)^2)</f>
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="23">
         <f>I6/2+L6</f>
         <v>7.75</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="23">
         <f>L6+I6/2</f>
         <v>7.75</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="23">
         <f>F6/D6</f>
         <v>1000</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="23">
         <f>J6/D6</f>
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="23">
         <v>2.75</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="23">
         <v>2.5273500000000002</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="23">
         <v>275</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="23" t="s">
         <v>70</v>
       </c>
       <c r="W6" t="s">
@@ -4740,14 +4757,14 @@
       <c r="W14" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="Q15">
@@ -4853,30 +4870,30 @@
       <c r="W17" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="21" t="s">
+      <c r="X17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
@@ -5014,2003 +5031,2002 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5"/>
-    <col min="12" max="12" width="6.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.5" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" customWidth="1"/>
-    <col min="18" max="24" width="11.5"/>
-    <col min="25" max="25" width="13.1640625" customWidth="1"/>
-    <col min="26" max="1025" width="11.5"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="17" max="23" width="11.5"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
         <v>86</v>
       </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="U1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="V1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <f>10*F2</f>
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>-10*F2</f>
+        <v>-0.1</v>
+      </c>
+      <c r="K2">
+        <f>-J2*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="L2">
+        <f>10*F2</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <f>5*F2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N2">
+        <f>M2</f>
+        <v>0.05</v>
+      </c>
+      <c r="O2">
+        <f>I2/F2</f>
+        <v>300</v>
+      </c>
+      <c r="P2">
+        <f>L2/F2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>120</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="H2">
-        <f>10*G2</f>
+      <c r="G4">
+        <f>10*F4</f>
         <v>0.1</v>
       </c>
-      <c r="I2">
+      <c r="H4">
         <v>0.5</v>
       </c>
-      <c r="J2">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="K2">
-        <f>-10*G2</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L2">
-        <f>-K2*2</f>
+      <c r="J4">
+        <f>-5*F4</f>
+        <v>-0.05</v>
+      </c>
+      <c r="K4">
+        <f>-J4*2</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <f>10*F4</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <f>5*F4</f>
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <f>M4</f>
+        <v>0.05</v>
+      </c>
+      <c r="O4">
+        <f>I4/F4</f>
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <f>L4/F4</f>
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>80</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3.4285709999999998</v>
+      </c>
+      <c r="S5">
+        <v>120</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q6">
+        <v>3.5</v>
+      </c>
+      <c r="S6">
+        <v>200</v>
+      </c>
+      <c r="T6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>96</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>3.4343430000000001</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f>10*F9</f>
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.75</v>
+      </c>
+      <c r="J9">
+        <f>-2*F9</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K9">
+        <f>-J9*2/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L9">
+        <f>4*F9</f>
+        <v>0.02</v>
+      </c>
+      <c r="M9">
+        <f>2*F9</f>
+        <v>0.01</v>
+      </c>
+      <c r="N9">
+        <f>M9</f>
+        <v>0.01</v>
+      </c>
+      <c r="O9">
+        <f>I9/F9</f>
+        <v>150</v>
+      </c>
+      <c r="P9">
+        <f>L9/F9</f>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3.5</v>
+      </c>
+      <c r="S9">
+        <v>200</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <v>3.5</v>
+      </c>
+      <c r="R10">
+        <v>3.5069999999999997E-2</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>4.0201000000000001E-2</v>
+      </c>
+      <c r="S11">
+        <v>200</v>
+      </c>
+      <c r="U11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0.02</v>
+      </c>
+      <c r="S12">
+        <v>200</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2.0101000000000001E-2</v>
+      </c>
+      <c r="S13">
+        <v>200</v>
+      </c>
+      <c r="U13" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <f>(3*C14-2*B14)/(2*(B14+3*C14))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E14">
+        <f>2*B14*(1+D14)</f>
+        <v>2.9990003332222592</v>
+      </c>
+      <c r="F14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <f>8*F14</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <f>-2*F14</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="K14">
+        <f>-J14*2</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="L14">
+        <f>4*F14</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="M14">
+        <f>2*F14</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="N14">
+        <f>M14</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O14">
+        <f>I14/F14</f>
+        <v>125</v>
+      </c>
+      <c r="P14" s="2">
+        <f>L14/F14</f>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.99497500000000005</v>
+      </c>
+      <c r="S14" s="2">
+        <v>200</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <f>(3*C16-2*B16)/(2*(B16+3*C16))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E16">
+        <f>2*B16*(1+D16)</f>
+        <v>2.9990003332222592</v>
+      </c>
+      <c r="F16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <f>8*F16</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <f>-2*F16</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="K16">
+        <f>-J16*2</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="L16">
+        <f>4*F16</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="M16">
+        <f>2*F16</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="N16">
+        <f>M16</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O16">
+        <f>I16/F16</f>
+        <v>125</v>
+      </c>
+      <c r="P16" s="2">
+        <f>L16/F16</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.42211100000000001</v>
+      </c>
+      <c r="S16" s="2">
+        <v>200</v>
+      </c>
+      <c r="T16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q17" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.39799299999999999</v>
+      </c>
+      <c r="S17" s="2">
+        <v>300</v>
+      </c>
+      <c r="T17" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <f>(3*C18-2*B18)/(2*(B18+3*C18))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E18">
+        <f>2*B18*(1+D18)</f>
+        <v>2.9990003332222592</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
+        <f>8*F18</f>
+        <v>0.08</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.75</v>
+      </c>
+      <c r="J18">
+        <f>-2*F18</f>
+        <v>-0.02</v>
+      </c>
+      <c r="K18">
+        <f>-J18*2</f>
+        <v>0.04</v>
+      </c>
+      <c r="L18">
+        <f>4*F18</f>
+        <v>0.04</v>
+      </c>
+      <c r="M18">
+        <f>2*F18</f>
+        <v>0.02</v>
+      </c>
+      <c r="N18">
+        <f>M18</f>
+        <v>0.02</v>
+      </c>
+      <c r="O18">
+        <f>I18/F18</f>
+        <v>75</v>
+      </c>
+      <c r="P18" s="2">
+        <f>L18/F18</f>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2">
+        <v>300</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q19" s="2">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2">
+        <v>600</v>
+      </c>
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s">
+        <v>105</v>
+      </c>
+      <c r="W19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>0.2</v>
       </c>
-      <c r="M2">
-        <f>10*G2</f>
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <f>(3*C20-2*B20)/(2*(B20+3*C20))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E20">
+        <f>2*B20*(1+D20)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <f>8*F20</f>
+        <v>0.08</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <f>-2*F20</f>
+        <v>-0.02</v>
+      </c>
+      <c r="K20">
+        <f>-J20*2</f>
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <f>4*F20</f>
+        <v>0.04</v>
+      </c>
+      <c r="M20">
+        <f>2*F20</f>
+        <v>0.02</v>
+      </c>
+      <c r="N20">
+        <f>M20</f>
+        <v>0.02</v>
+      </c>
+      <c r="O20">
+        <f>I20/F20</f>
+        <v>75</v>
+      </c>
+      <c r="P20" s="2">
+        <f>L20/F20</f>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2">
+        <v>200</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <f>(3*C21-2*B21)/(2*(B21+3*C21))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E21">
+        <f>2*B21*(1+D21)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
         <v>0.1</v>
       </c>
-      <c r="N2">
-        <f>5*G2</f>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.75</v>
+      </c>
+      <c r="J21">
+        <f>-F21</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K21">
+        <f>-J21*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="L21">
+        <f>4*F21</f>
+        <v>0.04</v>
+      </c>
+      <c r="M21">
+        <f>2*F21</f>
+        <v>0.02</v>
+      </c>
+      <c r="N21">
+        <f>M21</f>
+        <v>0.02</v>
+      </c>
+      <c r="O21">
+        <f>I21/F21</f>
+        <v>75</v>
+      </c>
+      <c r="P21" s="2">
+        <f>L21/F21</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2">
+        <v>100</v>
+      </c>
+      <c r="T21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q22" s="2">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2.6666699999999999</v>
+      </c>
+      <c r="S22" s="2">
+        <v>100</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s">
+        <v>94</v>
+      </c>
+      <c r="V22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2">
+        <v>275</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <f>(3*C24-2*B24)/(2*(B24+3*C24))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E24">
+        <f>2*B24*(1+D24)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
         <v>0.05</v>
       </c>
-      <c r="O2">
-        <f>N2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P2">
-        <f>J2/G2</f>
-        <v>300</v>
-      </c>
-      <c r="Q2">
-        <f>M2/G2</f>
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>120</v>
-      </c>
-      <c r="V2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>50</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <f>-F24</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K24">
+        <f>-J24*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="L24">
+        <f>4*F24</f>
+        <v>0.04</v>
+      </c>
+      <c r="M24">
+        <f>2*F24</f>
+        <v>0.02</v>
+      </c>
+      <c r="N24">
+        <f>M24</f>
+        <v>0.02</v>
+      </c>
+      <c r="O24">
+        <f>I24/F24</f>
+        <v>75</v>
+      </c>
+      <c r="P24" s="2">
+        <f>L24/F24</f>
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>2.75</v>
+      </c>
+      <c r="S24">
+        <v>275</v>
+      </c>
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q25" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14">
+        <v>200</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
-      <c r="H4">
-        <f>10*G4</f>
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <f>-5*G4</f>
-        <v>-0.05</v>
-      </c>
-      <c r="L4">
-        <f>-K4*2</f>
-        <v>0.1</v>
-      </c>
-      <c r="M4">
-        <f>10*G4</f>
-        <v>0.1</v>
-      </c>
-      <c r="N4">
-        <f>5*G4</f>
-        <v>0.05</v>
-      </c>
-      <c r="O4">
-        <f>N4</f>
-        <v>0.05</v>
-      </c>
-      <c r="P4">
-        <f>J4/G4</f>
-        <v>300</v>
-      </c>
-      <c r="Q4">
-        <f>M4/G4</f>
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>80</v>
-      </c>
-      <c r="V4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="57.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>3.4285709999999998</v>
-      </c>
-      <c r="T5">
-        <v>120</v>
-      </c>
-      <c r="U5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R6">
-        <v>3.5</v>
-      </c>
-      <c r="T6">
-        <v>200</v>
-      </c>
-      <c r="U6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>3.4343430000000001</v>
-      </c>
-      <c r="T7">
-        <v>100</v>
-      </c>
-      <c r="U7" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="G9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H9">
-        <f>10*G9</f>
-        <v>0.05</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>0.75</v>
-      </c>
-      <c r="K9">
-        <f>-2*G9</f>
-        <v>-0.01</v>
-      </c>
-      <c r="L9">
-        <f>-K9*2/4</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M9">
-        <f>4*G9</f>
-        <v>0.02</v>
-      </c>
-      <c r="N9">
-        <f>2*G9</f>
-        <v>0.01</v>
-      </c>
-      <c r="O9">
-        <f>N9</f>
-        <v>0.01</v>
-      </c>
-      <c r="P9">
-        <f>J9/G9</f>
-        <v>150</v>
-      </c>
-      <c r="Q9">
-        <f>M9/G9</f>
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>3.5</v>
-      </c>
-      <c r="T9">
-        <v>200</v>
-      </c>
-      <c r="U9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" t="s">
-        <v>96</v>
-      </c>
-      <c r="W9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R10">
-        <v>3.5</v>
-      </c>
-      <c r="S10">
-        <v>3.5069999999999997E-2</v>
-      </c>
-      <c r="T10">
-        <v>500</v>
-      </c>
-      <c r="U10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>4.0201000000000001E-2</v>
-      </c>
-      <c r="T11">
-        <v>200</v>
-      </c>
-      <c r="V11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0.02</v>
-      </c>
-      <c r="T12">
-        <v>200</v>
-      </c>
-      <c r="U12" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>2.0101000000000001E-2</v>
-      </c>
-      <c r="T13">
-        <v>200</v>
-      </c>
-      <c r="V13" t="s">
-        <v>96</v>
-      </c>
-      <c r="W13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <f>(3*D14-2*C14)/(2*(C14+3*D14))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F14">
-        <f>2*C14*(1+E14)</f>
-        <v>2.9990003332222592</v>
-      </c>
-      <c r="G14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <f>8*G14</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>0.75</v>
-      </c>
-      <c r="K14">
-        <f>-2*G14</f>
-        <v>-1.2E-2</v>
-      </c>
-      <c r="L14">
-        <f>-K14*2</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="M14">
-        <f>4*G14</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="N14">
-        <f>2*G14</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="O14">
-        <f>N14</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="P14">
-        <f>J14/G14</f>
-        <v>125</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>M14/G14</f>
-        <v>4</v>
-      </c>
-      <c r="R14" s="2">
-        <v>2</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.99497500000000005</v>
-      </c>
-      <c r="T14" s="2">
-        <v>200</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" t="s">
-        <v>96</v>
-      </c>
-      <c r="W14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B15" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <f>(3*D16-2*C16)/(2*(C16+3*D16))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F16">
-        <f>2*C16*(1+E16)</f>
-        <v>2.9990003332222592</v>
-      </c>
-      <c r="G16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H16">
-        <f>8*G16</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16">
-        <v>0.75</v>
-      </c>
-      <c r="K16">
-        <f>-2*G16</f>
-        <v>-1.2E-2</v>
-      </c>
-      <c r="L16">
-        <f>-K16*2</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="M16">
-        <f>4*G16</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="N16">
-        <f>2*G16</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="O16">
-        <f>N16</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="P16">
-        <f>J16/G16</f>
-        <v>125</v>
-      </c>
-      <c r="Q16" s="2">
-        <f>M16/G16</f>
-        <v>4</v>
-      </c>
-      <c r="R16" s="2">
-        <v>4</v>
-      </c>
-      <c r="S16" s="14">
-        <v>0.42211100000000001</v>
-      </c>
-      <c r="T16" s="2">
-        <v>200</v>
-      </c>
-      <c r="U16" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R17" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0.39799299999999999</v>
-      </c>
-      <c r="T17" s="2">
-        <v>300</v>
-      </c>
-      <c r="U17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V17" t="s">
-        <v>96</v>
-      </c>
-      <c r="W17" t="s">
-        <v>42</v>
-      </c>
-      <c r="X17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <f>(3*D18-2*C18)/(2*(C18+3*D18))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F18">
-        <f>2*C18*(1+E18)</f>
-        <v>2.9990003332222592</v>
-      </c>
-      <c r="G18">
-        <v>0.01</v>
-      </c>
-      <c r="H18">
-        <f>8*G18</f>
-        <v>0.08</v>
-      </c>
-      <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18">
-        <v>0.75</v>
-      </c>
-      <c r="K18">
-        <f>-2*G18</f>
-        <v>-0.02</v>
-      </c>
-      <c r="L18">
-        <f>-K18*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="M18">
-        <f>4*G18</f>
-        <v>0.04</v>
-      </c>
-      <c r="N18">
-        <f>2*G18</f>
-        <v>0.02</v>
-      </c>
-      <c r="O18">
-        <f>N18</f>
-        <v>0.02</v>
-      </c>
-      <c r="P18">
-        <f>J18/G18</f>
-        <v>75</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>M18/G18</f>
-        <v>4</v>
-      </c>
-      <c r="R18" s="2">
-        <v>3</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>300</v>
-      </c>
-      <c r="U18" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s">
-        <v>42</v>
-      </c>
-      <c r="X18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R19" s="2">
-        <v>3</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>600</v>
-      </c>
-      <c r="U19" t="s">
-        <v>41</v>
-      </c>
-      <c r="V19" t="s">
-        <v>106</v>
-      </c>
-      <c r="X19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>0.2</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-      <c r="E20">
-        <f>(3*D20-2*C20)/(2*(C20+3*D20))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F20">
-        <f>2*C20*(1+E20)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G20">
-        <v>0.01</v>
-      </c>
-      <c r="H20">
-        <f>8*G20</f>
-        <v>0.08</v>
-      </c>
-      <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20">
-        <v>0.75</v>
-      </c>
-      <c r="K20">
-        <f>-2*G20</f>
-        <v>-0.02</v>
-      </c>
-      <c r="L20">
-        <f>-K20*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="M20">
-        <f>4*G20</f>
-        <v>0.04</v>
-      </c>
-      <c r="N20">
-        <f>2*G20</f>
-        <v>0.02</v>
-      </c>
-      <c r="O20">
-        <f>N20</f>
-        <v>0.02</v>
-      </c>
-      <c r="P20">
-        <f>J20/G20</f>
-        <v>75</v>
-      </c>
-      <c r="Q20" s="2">
-        <f>M20/G20</f>
-        <v>4</v>
-      </c>
-      <c r="R20" s="2">
-        <v>3</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <v>200</v>
-      </c>
-      <c r="U20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="V25" t="s">
         <v>47</v>
       </c>
-      <c r="X20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-      <c r="E21">
-        <f>(3*D21-2*C21)/(2*(C21+3*D21))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F21">
-        <f>2*C21*(1+E21)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G21">
-        <v>0.01</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>0.75</v>
-      </c>
-      <c r="K21">
-        <f>-G21</f>
-        <v>-0.01</v>
-      </c>
-      <c r="L21">
-        <f>-K21*2</f>
-        <v>0.02</v>
-      </c>
-      <c r="M21">
-        <f>4*G21</f>
-        <v>0.04</v>
-      </c>
-      <c r="N21">
-        <f>2*G21</f>
-        <v>0.02</v>
-      </c>
-      <c r="O21">
-        <f>N21</f>
-        <v>0.02</v>
-      </c>
-      <c r="P21">
-        <f>J21/G21</f>
-        <v>75</v>
-      </c>
-      <c r="Q21" s="2">
-        <f>M21/G21</f>
-        <v>4</v>
-      </c>
-      <c r="R21" s="2">
-        <v>3</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2">
-        <v>100</v>
-      </c>
-      <c r="U21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s">
-        <v>96</v>
-      </c>
-      <c r="W21" t="s">
-        <v>42</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="W25" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R22" s="2">
-        <v>4</v>
-      </c>
-      <c r="S22" s="2">
-        <v>2.6666699999999999</v>
-      </c>
-      <c r="T22" s="2">
-        <v>100</v>
-      </c>
-      <c r="U22" t="s">
-        <v>41</v>
-      </c>
-      <c r="V22" t="s">
-        <v>94</v>
-      </c>
-      <c r="W22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <v>275</v>
-      </c>
-      <c r="U23" t="s">
-        <v>41</v>
-      </c>
-      <c r="V23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>0.2</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-      <c r="E24">
-        <f>(3*D24-2*C24)/(2*(C24+3*D24))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F24">
-        <f>2*C24*(1+E24)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G24">
-        <v>0.01</v>
-      </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="I24">
-        <v>0.5</v>
-      </c>
-      <c r="J24">
-        <v>0.75</v>
-      </c>
-      <c r="K24">
-        <f>-G24</f>
-        <v>-0.01</v>
-      </c>
-      <c r="L24">
-        <f>-K24*2</f>
-        <v>0.02</v>
-      </c>
-      <c r="M24">
-        <f>4*G24</f>
-        <v>0.04</v>
-      </c>
-      <c r="N24">
-        <f>2*G24</f>
-        <v>0.02</v>
-      </c>
-      <c r="O24">
-        <f>N24</f>
-        <v>0.02</v>
-      </c>
-      <c r="P24">
-        <f>J24/G24</f>
-        <v>75</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>M24/G24</f>
-        <v>4</v>
-      </c>
-      <c r="R24">
-        <v>2.75</v>
-      </c>
-      <c r="T24">
-        <v>275</v>
-      </c>
-      <c r="U24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R25" s="15">
-        <v>2.75</v>
-      </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15">
-        <v>200</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W25" t="s">
-        <v>47</v>
       </c>
       <c r="X25" t="s">
         <v>109</v>
       </c>
-      <c r="Y25" t="s">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q26" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R26" s="2">
+        <v>2.4874399999999999</v>
+      </c>
+      <c r="S26" s="2">
+        <v>550</v>
+      </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" t="s">
+        <v>96</v>
+      </c>
+      <c r="V26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R26" s="2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q27" s="2">
         <v>2.75</v>
       </c>
-      <c r="S26" s="2">
-        <v>2.4874399999999999</v>
-      </c>
-      <c r="T26" s="2">
-        <v>550</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="R27">
+        <v>2.649635</v>
+      </c>
+      <c r="S27">
+        <v>275</v>
+      </c>
+      <c r="T27" t="s">
         <v>41</v>
       </c>
-      <c r="V26" t="s">
+      <c r="U27" t="s">
         <v>96</v>
       </c>
-      <c r="W26" t="s">
-        <v>42</v>
-      </c>
-      <c r="X26" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y26" t="s">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q28" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14">
+        <v>250</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="V28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q29" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2">
+        <v>200</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>96</v>
+      </c>
+      <c r="W29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R27" s="2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q30" s="2">
         <v>2.75</v>
       </c>
-      <c r="S27">
-        <v>2.649635</v>
-      </c>
-      <c r="T27">
+      <c r="R30" s="2">
+        <v>2.6396000000000002</v>
+      </c>
+      <c r="S30" s="2">
         <v>275</v>
       </c>
-      <c r="U27" t="s">
-        <v>41</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R28" s="15">
+      <c r="W30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q31" s="14">
         <v>2.75</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15">
+      <c r="R31" s="14"/>
+      <c r="S31" s="14">
         <v>250</v>
       </c>
-      <c r="U28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" s="15" t="s">
+      <c r="T31" s="14"/>
+      <c r="U31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="W28" t="s">
+      <c r="V31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R29" s="2">
+      <c r="X31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q32" s="2">
         <v>2.75</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2">
+      <c r="R32" s="2">
+        <v>2.6394500000000001</v>
+      </c>
+      <c r="S32" s="2">
         <v>200</v>
       </c>
-      <c r="U29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U32" t="s">
         <v>96</v>
       </c>
-      <c r="X29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R30" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S30" s="2">
-        <v>2.6396000000000002</v>
-      </c>
-      <c r="T30" s="2">
-        <v>275</v>
-      </c>
-      <c r="V30" t="s">
-        <v>96</v>
-      </c>
-      <c r="X30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R31" s="15">
-        <v>2.75</v>
-      </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15">
-        <v>250</v>
-      </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="R32" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S32" s="2">
-        <v>2.6394500000000001</v>
-      </c>
-      <c r="T32" s="2">
-        <v>200</v>
-      </c>
-      <c r="V32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" t="s">
         <v>86</v>
       </c>
+      <c r="L33" t="s">
+        <v>87</v>
+      </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" t="s">
         <v>90</v>
       </c>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <f>(3*C34-2*B34)/(2*(B34+3*C34))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E34">
+        <f>2*B34*(1+D34)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F34">
+        <v>0.01</v>
+      </c>
+      <c r="G34">
+        <v>0.04</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>0.75</v>
+      </c>
+      <c r="J34">
+        <f>-F34</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K34">
+        <f>-J34*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="L34">
+        <f>10 *F34</f>
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <f>2*F34</f>
+        <v>0.02</v>
+      </c>
+      <c r="N34">
+        <f>M34</f>
+        <v>0.02</v>
+      </c>
+      <c r="O34">
+        <f>I34/F34</f>
+        <v>75</v>
+      </c>
+      <c r="P34" s="2">
+        <f>L34/F34</f>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2.7198899999999999</v>
+      </c>
+      <c r="S34" s="2">
+        <v>275</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s">
+        <v>113</v>
+      </c>
+      <c r="V34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q35" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14">
+        <v>350</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="W35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q36" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.13395399999999999</v>
+      </c>
+      <c r="S36" s="15">
+        <v>350</v>
+      </c>
+      <c r="T36" s="15"/>
+      <c r="U36" t="s">
+        <v>113</v>
+      </c>
+      <c r="W36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q37" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="15">
+        <v>350</v>
+      </c>
+      <c r="T37" s="15"/>
+      <c r="U37" t="s">
+        <v>113</v>
+      </c>
+      <c r="W37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q38" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15">
+        <v>350</v>
+      </c>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="W38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15">
+        <v>700</v>
+      </c>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>0.2</v>
       </c>
-      <c r="D34">
+      <c r="C40">
         <v>200</v>
       </c>
-      <c r="E34">
-        <f>(3*D34-2*C34)/(2*(C34+3*D34))</f>
+      <c r="D40">
+        <f>(3*C40-2*B40)/(2*(B40+3*C40))</f>
         <v>0.49950016661112961</v>
       </c>
-      <c r="F34">
-        <f>2*C34*(1+E34)</f>
+      <c r="E40">
+        <f>2*B40*(1+D40)</f>
         <v>0.59980006664445185</v>
       </c>
-      <c r="G34">
+      <c r="F40">
         <v>0.01</v>
-      </c>
-      <c r="H34">
-        <v>0.04</v>
-      </c>
-      <c r="I34">
-        <v>0.5</v>
-      </c>
-      <c r="J34">
-        <v>0.75</v>
-      </c>
-      <c r="K34">
-        <f>-G34</f>
-        <v>-0.01</v>
-      </c>
-      <c r="L34">
-        <f>-K34*2</f>
-        <v>0.02</v>
-      </c>
-      <c r="M34">
-        <f>10 *G34</f>
-        <v>0.1</v>
-      </c>
-      <c r="N34">
-        <f>2*G34</f>
-        <v>0.02</v>
-      </c>
-      <c r="O34">
-        <f>N34</f>
-        <v>0.02</v>
-      </c>
-      <c r="P34">
-        <f>J34/G34</f>
-        <v>75</v>
-      </c>
-      <c r="Q34" s="2">
-        <f>M34/G34</f>
-        <v>10</v>
-      </c>
-      <c r="R34" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S34" s="2">
-        <v>2.7198899999999999</v>
-      </c>
-      <c r="T34" s="2">
-        <v>275</v>
-      </c>
-      <c r="U34" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" t="s">
-        <v>114</v>
-      </c>
-      <c r="W34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R35" s="15">
-        <v>2.75</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15">
-        <v>350</v>
-      </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="X35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R36" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0.13395399999999999</v>
-      </c>
-      <c r="T36" s="16">
-        <v>350</v>
-      </c>
-      <c r="U36" s="16"/>
-      <c r="V36" t="s">
-        <v>114</v>
-      </c>
-      <c r="X36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R37" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="16">
-        <v>350</v>
-      </c>
-      <c r="U37" s="16"/>
-      <c r="V37" t="s">
-        <v>114</v>
-      </c>
-      <c r="X37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R38" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16">
-        <v>350</v>
-      </c>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="X38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R39" s="2"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16">
-        <v>700</v>
-      </c>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>1000</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
-      </c>
-      <c r="D40">
-        <v>200</v>
-      </c>
-      <c r="E40">
-        <f>(3*D40-2*C40)/(2*(C40+3*D40))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F40">
-        <f>2*C40*(1+E40)</f>
-        <v>0.59980006664445185</v>
       </c>
       <c r="G40">
         <v>0.01</v>
       </c>
       <c r="H40">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
+        <v>0.75</v>
+      </c>
+      <c r="J40">
+        <f>-F40</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K40">
+        <f>-J40*2</f>
+        <v>0.02</v>
+      </c>
+      <c r="L40">
+        <f>4*F40</f>
+        <v>0.04</v>
+      </c>
+      <c r="M40">
+        <f>2*F40</f>
+        <v>0.02</v>
+      </c>
+      <c r="N40">
+        <f>M40</f>
+        <v>0.02</v>
+      </c>
+      <c r="O40">
+        <f>I40/F40</f>
+        <v>75</v>
+      </c>
+      <c r="P40" s="2">
+        <f>L40/F40</f>
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>2.75</v>
+      </c>
+      <c r="R40">
+        <v>2.6496400000000002</v>
+      </c>
+      <c r="S40">
+        <v>275</v>
+      </c>
+      <c r="U40" t="s">
+        <v>96</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <f>(3*C41-2*B41)/(2*(B41+3*C41))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E41">
+        <f>2*B41*(1+D41)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F41">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G41">
+        <v>0.04</v>
+      </c>
+      <c r="H41">
         <v>0.5</v>
       </c>
-      <c r="J40">
+      <c r="I41">
         <v>0.75</v>
       </c>
-      <c r="K40">
-        <f>-G40</f>
-        <v>-0.01</v>
-      </c>
-      <c r="L40">
-        <f>-K40*2</f>
-        <v>0.02</v>
-      </c>
-      <c r="M40">
-        <f>4*G40</f>
+      <c r="J41">
+        <f>-2*F41</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="K41">
+        <f>-J41*2</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L41">
+        <f>4*F41</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M41">
+        <f>2*F41</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N41">
+        <f>M41</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O41">
+        <f>I41/F41</f>
+        <v>93.75</v>
+      </c>
+      <c r="P41" s="2">
+        <f>L41/F41</f>
+        <v>4</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" s="2">
+        <v>275</v>
+      </c>
+      <c r="T41" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>2.7669199999999998</v>
+      </c>
+      <c r="S42">
+        <v>400</v>
+      </c>
+      <c r="V42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="23">
+        <v>1</v>
+      </c>
+      <c r="B43" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="23">
+        <v>200</v>
+      </c>
+      <c r="D43" s="23">
+        <f>(3*C43-2*B43)/(2*(B43+3*C43))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E43" s="23">
+        <f>2*B43*(1+D43)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F43" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G43" s="23">
         <v>0.04</v>
       </c>
-      <c r="N40">
-        <f>2*G40</f>
-        <v>0.02</v>
-      </c>
-      <c r="O40">
-        <f>N40</f>
-        <v>0.02</v>
-      </c>
-      <c r="P40">
-        <f>J40/G40</f>
-        <v>75</v>
-      </c>
-      <c r="Q40" s="2">
-        <f>M40/G40</f>
+      <c r="H43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="J43" s="23">
+        <f>-2*F43</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="K43" s="23">
+        <f>-J43*2</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L43" s="23">
+        <f>4*F43</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M43" s="23">
+        <f>2*F43</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N43" s="23">
+        <f>M43</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O43" s="23">
+        <f>I43/F43</f>
+        <v>93.75</v>
+      </c>
+      <c r="P43" s="23">
+        <f>L43/F43</f>
         <v>4</v>
       </c>
-      <c r="R40">
-        <v>2.75</v>
-      </c>
-      <c r="S40">
-        <v>2.6496400000000002</v>
-      </c>
-      <c r="T40">
-        <v>275</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="Q43" s="25">
+        <v>3</v>
+      </c>
+      <c r="R43" s="25">
+        <v>2.7591999999999999</v>
+      </c>
+      <c r="S43" s="25">
+        <v>300</v>
+      </c>
+      <c r="T43" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V43" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <f>(3*C44-2*B44)/(2*(B44+3*C44))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E44">
+        <f>2*B44*(1+D44)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G44">
+        <v>0.04</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>0.75</v>
+      </c>
+      <c r="J44">
+        <f>-1*F44</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K44">
+        <f>-J44*2</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L44">
+        <f>10*F44</f>
+        <v>0.08</v>
+      </c>
+      <c r="M44">
+        <f>2*F44</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N44">
+        <f>M44</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O44">
+        <f>I44/F44</f>
+        <v>93.75</v>
+      </c>
+      <c r="P44" s="2">
+        <f>L44/F44</f>
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>2.8</v>
+      </c>
+      <c r="R44">
+        <v>2.7498200000000002</v>
+      </c>
+      <c r="S44">
+        <v>280</v>
+      </c>
+      <c r="U44" t="s">
         <v>96</v>
       </c>
-      <c r="W40" t="s">
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q45" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2">
+        <v>400</v>
+      </c>
+      <c r="U45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Q46">
+        <v>2.85</v>
+      </c>
+      <c r="S46">
+        <v>450</v>
+      </c>
+      <c r="U46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="S47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>200</v>
+      </c>
+      <c r="D48" s="2">
+        <f>(3*C48-2*B48)/(2*(B48+3*C48))</f>
+        <v>0.49950016661112961</v>
+      </c>
+      <c r="E48" s="2">
+        <f>2*B48*(1+D48)</f>
+        <v>0.59980006664445185</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J48" s="2">
+        <f>-1*F48</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K48" s="2">
+        <f>-J48*2</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f>20*F48</f>
+        <v>0.16</v>
+      </c>
+      <c r="M48" s="2">
+        <f>2*F48</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N48" s="2">
+        <f>M48</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O48" s="2">
+        <f>I48/F48</f>
+        <v>93.75</v>
+      </c>
+      <c r="P48" s="2">
+        <f>L48/F48</f>
+        <v>20</v>
+      </c>
+      <c r="Q48">
+        <v>2.85</v>
+      </c>
+      <c r="S48">
+        <v>400</v>
+      </c>
+      <c r="U48" t="s">
+        <v>96</v>
+      </c>
+      <c r="V48" t="s">
         <v>42</v>
       </c>
-      <c r="X40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1000</v>
-      </c>
-      <c r="C41">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="Q49">
+        <v>2.85</v>
+      </c>
+      <c r="S49">
+        <v>285</v>
+      </c>
+      <c r="U49" t="s">
+        <v>119</v>
+      </c>
+      <c r="V49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
         <v>0.2</v>
       </c>
-      <c r="D41">
+      <c r="C50" s="2">
         <v>200</v>
       </c>
-      <c r="E41">
-        <f>(3*D41-2*C41)/(2*(C41+3*D41))</f>
+      <c r="D50" s="2">
+        <f>(3*C50-2*B50)/(2*(B50+3*C50))</f>
         <v>0.49950016661112961</v>
       </c>
-      <c r="F41">
-        <f>2*C41*(1+E41)</f>
+      <c r="E50" s="2">
+        <f>2*B50*(1+D50)</f>
         <v>0.59980006664445185</v>
       </c>
-      <c r="G41">
+      <c r="F50" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H41">
+      <c r="G50" s="2">
         <v>0.04</v>
       </c>
-      <c r="I41">
+      <c r="H50" s="2">
         <v>0.5</v>
       </c>
-      <c r="J41">
+      <c r="I50" s="2">
         <v>0.75</v>
       </c>
-      <c r="K41">
-        <f>-2*G41</f>
-        <v>-1.6E-2</v>
-      </c>
-      <c r="L41">
-        <f>-K41*2</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="M41">
-        <f>4*G41</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="N41">
-        <f>2*G41</f>
+      <c r="J50" s="2">
+        <f>-1*F50</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K50" s="2">
+        <f>-J50*2</f>
         <v>1.6E-2</v>
       </c>
-      <c r="O41">
-        <f>N41</f>
+      <c r="L50" s="2">
+        <f>18*F50</f>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="M50" s="2">
+        <f>2*F50</f>
         <v>1.6E-2</v>
       </c>
-      <c r="P41">
-        <f>J41/G41</f>
+      <c r="N50" s="2">
+        <f>M50</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O50" s="2">
+        <f>I50/F50</f>
         <v>93.75</v>
       </c>
-      <c r="Q41" s="2">
-        <f>M41/G41</f>
-        <v>4</v>
-      </c>
-      <c r="R41" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="S41" s="2" t="s">
+      <c r="P50" s="2">
+        <f>L50/F50</f>
+        <v>18</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="R50">
+        <v>2.7295769999999999</v>
+      </c>
+      <c r="S50">
+        <v>285</v>
+      </c>
+      <c r="U50" t="s">
         <v>119</v>
       </c>
-      <c r="T41" s="2">
-        <v>275</v>
-      </c>
-      <c r="U41" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R42">
-        <v>4</v>
-      </c>
-      <c r="S42">
-        <v>2.7669199999999998</v>
-      </c>
-      <c r="T42">
-        <v>400</v>
-      </c>
-      <c r="W42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R43" s="15">
-        <v>3</v>
-      </c>
-      <c r="S43" s="15">
-        <v>2.7591999999999999</v>
-      </c>
-      <c r="T43" s="15">
-        <v>300</v>
-      </c>
-      <c r="U43" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V43" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W43" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1000</v>
-      </c>
-      <c r="C44">
-        <v>0.2</v>
-      </c>
-      <c r="D44">
-        <v>200</v>
-      </c>
-      <c r="E44">
-        <f>(3*D44-2*C44)/(2*(C44+3*D44))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F44">
-        <f>2*C44*(1+E44)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H44">
-        <v>0.04</v>
-      </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44">
-        <v>0.75</v>
-      </c>
-      <c r="K44">
-        <f>-1*G44</f>
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="L44">
-        <f>-K44*2</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M44">
-        <f>10*G44</f>
-        <v>0.08</v>
-      </c>
-      <c r="N44">
-        <f>2*G44</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="O44">
-        <f>N44</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="P44">
-        <f>J44/G44</f>
-        <v>93.75</v>
-      </c>
-      <c r="Q44" s="2">
-        <f>M44/G44</f>
-        <v>10</v>
-      </c>
-      <c r="R44">
-        <v>2.8</v>
-      </c>
-      <c r="S44">
-        <v>2.7498200000000002</v>
-      </c>
-      <c r="T44">
-        <v>280</v>
-      </c>
-      <c r="V44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R45" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2">
-        <v>400</v>
-      </c>
-      <c r="V45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R46">
-        <v>2.85</v>
-      </c>
-      <c r="T46">
-        <v>450</v>
-      </c>
-      <c r="V46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="T47">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>200</v>
-      </c>
-      <c r="E48" s="2">
-        <f>(3*D48-2*C48)/(2*(C48+3*D48))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F48" s="2">
-        <f>2*C48*(1+E48)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G48" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K48" s="2">
-        <f>-1*G48</f>
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="L48" s="2">
-        <f>-K48*2</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M48" s="2">
-        <f>20*G48</f>
-        <v>0.16</v>
-      </c>
-      <c r="N48" s="2">
-        <f>2*G48</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="O48" s="2">
-        <f>N48</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="P48" s="2">
-        <f>J48/G48</f>
-        <v>93.75</v>
-      </c>
-      <c r="Q48" s="2">
-        <f>M48/G48</f>
-        <v>20</v>
-      </c>
-      <c r="R48">
-        <v>2.85</v>
-      </c>
-      <c r="T48">
-        <v>400</v>
-      </c>
-      <c r="V48" t="s">
-        <v>96</v>
-      </c>
-      <c r="W48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="R49">
-        <v>2.85</v>
-      </c>
-      <c r="T49">
-        <v>285</v>
-      </c>
-      <c r="V49" t="s">
-        <v>120</v>
-      </c>
-      <c r="W49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>200</v>
-      </c>
-      <c r="E50" s="2">
-        <f>(3*D50-2*C50)/(2*(C50+3*D50))</f>
-        <v>0.49950016661112961</v>
-      </c>
-      <c r="F50" s="2">
-        <f>2*C50*(1+E50)</f>
-        <v>0.59980006664445185</v>
-      </c>
-      <c r="G50" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K50" s="2">
-        <f>-1*G50</f>
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="L50" s="2">
-        <f>-K50*2</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M50" s="2">
-        <f>18*G50</f>
-        <v>0.14400000000000002</v>
-      </c>
-      <c r="N50" s="2">
-        <f>2*G50</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="O50" s="2">
-        <f>N50</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="P50" s="2">
-        <f>J50/G50</f>
-        <v>93.75</v>
-      </c>
-      <c r="Q50" s="2">
-        <f>M50/G50</f>
-        <v>18</v>
-      </c>
-      <c r="R50" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="S50">
-        <v>2.7295769999999999</v>
-      </c>
-      <c r="T50">
-        <v>285</v>
-      </c>
-      <c r="V50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="T51">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="S51">
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K53" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="W53" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
       <c r="C54" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2">
-        <v>200</v>
+        <f>(3*C54-2*B54)/(2*(B54+3*C54))</f>
+        <v>0.49950016661112961</v>
       </c>
       <c r="E54" s="2">
-        <f>(3*D54-2*C54)/(2*(C54+3*D54))</f>
-        <v>0.49950016661112961</v>
+        <f>2*B54*(1+D54)</f>
+        <v>0.59980006664445185</v>
       </c>
       <c r="F54" s="2">
-        <f>2*C54*(1+E54)</f>
-        <v>0.59980006664445185</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G54" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.04</v>
       </c>
       <c r="H54" s="2">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="I54" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J54" s="2">
-        <v>0.75</v>
+        <f>-2*F54</f>
+        <v>-1.6E-2</v>
       </c>
       <c r="K54" s="2">
-        <f>-2*G54</f>
-        <v>-1.6E-2</v>
+        <f>-J54*2</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="L54" s="2">
-        <f>-K54*2</f>
+        <f>4*F54</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="M54" s="2">
-        <f>4*G54</f>
-        <v>3.2000000000000001E-2</v>
+        <f>2*F54</f>
+        <v>1.6E-2</v>
       </c>
       <c r="N54" s="2">
-        <f>2*G54</f>
+        <f>M54</f>
         <v>1.6E-2</v>
       </c>
       <c r="O54" s="2">
-        <f>N54</f>
-        <v>1.6E-2</v>
+        <f>I54/F54</f>
+        <v>93.75</v>
       </c>
       <c r="P54" s="2">
-        <f>J54/G54</f>
-        <v>93.75</v>
-      </c>
-      <c r="Q54" s="2">
-        <f>M54/G54</f>
+        <f>L54/F54</f>
         <v>4</v>
       </c>
-      <c r="R54" s="15">
+      <c r="Q54" s="14">
         <v>3</v>
       </c>
-      <c r="S54" s="15">
+      <c r="R54" s="14">
         <v>2.7591999999999999</v>
       </c>
-      <c r="T54" s="15">
+      <c r="S54" s="14">
         <v>300</v>
       </c>
-      <c r="U54" s="15" t="s">
+      <c r="T54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="15" t="s">
+      <c r="U54" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="W54" s="15" t="s">
+      <c r="V54" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
       <c r="D58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" t="s">
         <v>122</v>
-      </c>
-      <c r="E58" t="s">
-        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>123</v>
@@ -7021,153 +7037,164 @@
       <c r="H58" t="s">
         <v>125</v>
       </c>
-      <c r="I58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C59">
+        <v>3</v>
+      </c>
       <c r="D59">
+        <v>299</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>C59/D59*E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>1.5+F59</f>
+        <v>1.5</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H64" si="0">(G59-1.5)/1.5*100</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>3</v>
       </c>
-      <c r="E59">
+      <c r="N59">
         <v>299</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f>D59/E59*F59</f>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f>1.5+G59</f>
-        <v>1.5</v>
-      </c>
-      <c r="I59">
-        <f t="shared" ref="I59:I64" si="0">(H59-1.5)/1.5*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O59">
+        <f>M59/N59</f>
+        <v>1.0033444816053512E-2</v>
+      </c>
+      <c r="P59">
+        <f>O59*275</f>
+        <v>2.7591973244147159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
       <c r="D60" s="2">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2">
         <v>299</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>50</v>
       </c>
+      <c r="F60" s="2">
+        <f t="shared" ref="F60:F64" si="1">C60/D60*E60</f>
+        <v>0.50167224080267558</v>
+      </c>
       <c r="G60" s="2">
-        <f t="shared" ref="G60:G64" si="1">D60/E60*F60</f>
-        <v>0.50167224080267558</v>
+        <f t="shared" ref="G60:G64" si="2">1.5+F60</f>
+        <v>2.0016722408026757</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" ref="H60:H64" si="2">1.5+G60</f>
-        <v>2.0016722408026757</v>
-      </c>
-      <c r="I60" s="2">
         <f t="shared" si="0"/>
         <v>33.444816053511708</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
       <c r="D61" s="2">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2">
         <v>299</v>
       </c>
-      <c r="F61">
+      <c r="E61">
         <v>150</v>
       </c>
-      <c r="G61" s="2">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>1.5050167224080269</v>
       </c>
-      <c r="H61" s="2">
+      <c r="G61" s="2">
         <f t="shared" si="2"/>
         <v>3.0050167224080271</v>
       </c>
-      <c r="I61" s="2">
+      <c r="H61" s="2">
         <f t="shared" si="0"/>
         <v>100.33444816053515</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
       <c r="D62" s="2">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2">
         <v>299</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>250</v>
       </c>
-      <c r="G62" s="2">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>2.508361204013378</v>
       </c>
-      <c r="H62" s="2">
+      <c r="G62" s="2">
         <f t="shared" si="2"/>
         <v>4.0083612040133776</v>
       </c>
-      <c r="I62" s="2">
+      <c r="H62" s="2">
         <f t="shared" si="0"/>
         <v>167.22408026755852</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
       <c r="D63" s="2">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2">
         <v>299</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>274</v>
       </c>
-      <c r="G63" s="2">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>2.7491638795986622</v>
       </c>
-      <c r="H63" s="2">
+      <c r="G63" s="2">
         <f t="shared" si="2"/>
         <v>4.2491638795986617</v>
       </c>
-      <c r="I63" s="2">
+      <c r="H63" s="2">
         <f t="shared" si="0"/>
         <v>183.27759197324411</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
       <c r="D64" s="2">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2">
         <v>299</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>275</v>
       </c>
-      <c r="G64" s="2">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>2.7591973244147159</v>
       </c>
-      <c r="H64" s="2">
+      <c r="G64" s="2">
         <f t="shared" si="2"/>
         <v>4.2591973244147159</v>
       </c>
-      <c r="I64" s="2">
+      <c r="H64" s="2">
         <f t="shared" si="0"/>
         <v>183.94648829431441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="B15:V15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
